--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAB3FE1D-B5C4-4AD4-8A91-158B8BE1B875}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23120379-A226-4B43-8499-8547C5613492}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="811">
   <si>
     <t>id</t>
   </si>
@@ -2453,6 +2453,136 @@
   </si>
   <si>
     <t>Mysti megállt egy apró Drakula mini Kolodkó-szobor vigyorgott rá. A kis bronz vámpír mintha titokban kacsintott volna rá, miközben a holdfény megcsillant Mysti medálján. A cica halkan dorombolva érezte, hogy ez a hely is őrzi a város egy elfeledett titkát – talán egy újabb nyom a testvérei felé.</t>
+  </si>
+  <si>
+    <t>bokaykert-teszt</t>
+  </si>
+  <si>
+    <t>Mysti cica a Bókay-kertben</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavasz reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
+Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
+  </si>
+  <si>
+    <t>47.43409501504324</t>
+  </si>
+  <si>
+    <t>19.176980647832337</t>
+  </si>
+  <si>
+    <t>Mysti leült a rétesbolt elé, és óvatosan megtapogatta a fénylő szalagdarabot. Érezte rajta a testvérei ismert, meleg illatát – mintha csak néhány perccel korábban hagyhatták volna ott. Bár még mindig nem találta meg őket, egyre biztosabb volt abban, hogy közel jár a nagy felfedezéshez.
+Aznap rájött, hogy minden apró jel egy újabb lépés a családja felé. Az őszi szél a medálját ringatta, mintha csak biztatná: „Folytasd, Mysti, jó úton jársz!” A cica felállt, körbenézett, és elhatározta, hogy másnap újra visszatér – mert ahol ennyi nyom van, ott a testvérei sem lehetnek messze. Mysti így folytatta kalandos útját, tele reménnyel… és egy újabb rejtéllyel, amit meg kell fejtenie.</t>
+  </si>
+  <si>
+    <t>thumbnails\bokay.png</t>
+  </si>
+  <si>
+    <t>47.43393365969575</t>
+  </si>
+  <si>
+    <t>19.17789455431231</t>
+  </si>
+  <si>
+    <t>**Roller pálya**
+A roller pálya gyors kanyarjai Mystit a rajzfilmek száguldó hőseire emlékeztették. Eszébe jutott egy mese, ahol egy kék sün szalad végig villámgyorsan – pont úgy, ahogy ő képzeli a testvérei nyomát.</t>
+  </si>
+  <si>
+    <t>Melyik rajzfilmes hős híres arról, hogy villámgyorsan fut, és kék színű?</t>
+  </si>
+  <si>
+    <t>Videójátékban is szerepel, tüskékkel a hátán.</t>
+  </si>
+  <si>
+    <t>A neve úgy hangzik, mint egy angol szó „hang” vagy „rezgés”.</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>47.4349655331677</t>
+  </si>
+  <si>
+    <t>19.17696420204077</t>
+  </si>
+  <si>
+    <t>**Teqball pálya**
+Az íves teqball asztal láttán Mysti eszébe jutott egy mese, ahol a szereplők sokszor együtt csapatmunkával oldanak meg feladatokat — pont olyan összhangban, ahogyan a játékosok is együtt dolgoznak egy meccsen.</t>
+  </si>
+  <si>
+    <t>Melyik sorozat hősei, akik mindig segítenek a város lakóinak?</t>
+  </si>
+  <si>
+    <t>Kutyusokból áll a csapat.</t>
+  </si>
+  <si>
+    <t>Ryder a vezetőjük</t>
+  </si>
+  <si>
+    <t>Mancs Őrjárat;mancsőrjárat</t>
+  </si>
+  <si>
+    <t>47.43524724323107</t>
+  </si>
+  <si>
+    <t>19.17706103316563</t>
+  </si>
+  <si>
+    <t>**Teniszpálya**
+A teniszpálya kerítése mellett egy elgurult teniszlabda állt meg Mysti előtt. A labda furcsán vibrált, mintha frissen mozdították volna el. A cica körbeszimatolt, és újabb finom illatot érzett – pontosan olyat, amilyen a testvérei bundájához tartozott.</t>
+  </si>
+  <si>
+    <t>Hogy hívják a Jégkorszak mamutját?</t>
+  </si>
+  <si>
+    <t>A neve „d”-re végződik.</t>
+  </si>
+  <si>
+    <t>Manfréd;Manny</t>
+  </si>
+  <si>
+    <t>47.43557951071052</t>
+  </si>
+  <si>
+    <t>19.17732577841204</t>
+  </si>
+  <si>
+    <t>**Dísztó**
+Ahogy Mysti a vízre nézett, eszébe jutott egy másik kedves mese, amelyben egy kék halacskának nagyon fontos mondatot mondanak: „Csak ússz tovább!”</t>
+  </si>
+  <si>
+    <t>Melyik animációs filmben hangzik el a híres mondat: „Csak ússz és evezz!”?</t>
+  </si>
+  <si>
+    <t>Egy apuka hal keresi a fiát.</t>
+  </si>
+  <si>
+    <t>A kék hal neve Dory.</t>
+  </si>
+  <si>
+    <t>Némó nyomában;Némó</t>
+  </si>
+  <si>
+    <t>47.435862152176384</t>
+  </si>
+  <si>
+    <t>19.17710568897575</t>
+  </si>
+  <si>
+    <t>**Míves Rétes bolt **
+Mire Mysti a rétesbolt elé ért, a bejárat mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat.</t>
+  </si>
+  <si>
+    <t>Mi annak a híres sárga pólós medvének a neve, aki nagyon szereti a mézet?</t>
+  </si>
+  <si>
+    <t>Róla szól a „Százholdas Pagony” története.</t>
+  </si>
+  <si>
+    <t>Malacka barátja.</t>
+  </si>
+  <si>
+    <t>Micimackó</t>
   </si>
 </sst>
 </file>
@@ -2518,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2537,6 +2667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2757,11 +2890,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2916,48 +3049,45 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>686</v>
+      <c r="F5" s="6" t="s">
+        <v>772</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>687</v>
+        <v>774</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>775</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>688</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>684</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>685</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -2965,34 +3095,34 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>276</v>
+      <c r="F6" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>272</v>
+        <v>689</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>273</v>
+        <v>690</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>274</v>
+      <c r="J6" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>275</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -3001,30 +3131,33 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>273</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>117</v>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3032,31 +3165,31 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>118</v>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3064,31 +3197,31 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
+      <c r="F9" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>182</v>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3096,104 +3229,127 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>183</v>
+      <c r="F10" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>269</v>
+        <v>145</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>277</v>
+      <c r="A11" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>295</v>
+      <c r="C11" t="s">
+        <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>330</v>
+      <c r="A12" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
@@ -3202,9 +3358,18 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3219,11 +3384,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5508,6 +5673,151 @@
       </c>
       <c r="J76" s="2" t="s">
         <v>732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>777</v>
+      </c>
+      <c r="D77" t="s">
+        <v>778</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G77" t="s">
+        <v>780</v>
+      </c>
+      <c r="H77" t="s">
+        <v>781</v>
+      </c>
+      <c r="I77" t="s">
+        <v>782</v>
+      </c>
+      <c r="J77" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>784</v>
+      </c>
+      <c r="D78" t="s">
+        <v>785</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="G78" t="s">
+        <v>787</v>
+      </c>
+      <c r="H78" t="s">
+        <v>788</v>
+      </c>
+      <c r="I78" t="s">
+        <v>789</v>
+      </c>
+      <c r="J78" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>791</v>
+      </c>
+      <c r="D79" t="s">
+        <v>792</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>797</v>
+      </c>
+      <c r="D80" t="s">
+        <v>798</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="G80" t="s">
+        <v>800</v>
+      </c>
+      <c r="H80" t="s">
+        <v>801</v>
+      </c>
+      <c r="I80" t="s">
+        <v>802</v>
+      </c>
+      <c r="J80" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>804</v>
+      </c>
+      <c r="D81" t="s">
+        <v>805</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="G81" t="s">
+        <v>807</v>
+      </c>
+      <c r="H81" t="s">
+        <v>808</v>
+      </c>
+      <c r="I81" t="s">
+        <v>809</v>
+      </c>
+      <c r="J81" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23120379-A226-4B43-8499-8547C5613492}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19FCF60-4FB2-4DEE-B501-245665A840FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -2569,20 +2569,20 @@
     <t>19.17710568897575</t>
   </si>
   <si>
+    <t>Mi annak a híres sárga pólós medvének a neve, aki nagyon szereti a mézet?</t>
+  </si>
+  <si>
+    <t>Róla szól a „Százholdas Pagony” története.</t>
+  </si>
+  <si>
+    <t>Malacka barátja.</t>
+  </si>
+  <si>
+    <t>Micimackó</t>
+  </si>
+  <si>
     <t>**Míves Rétes bolt **
-Mire Mysti a rétesbolt elé ért, a bejárat mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat.</t>
-  </si>
-  <si>
-    <t>Mi annak a híres sárga pólós medvének a neve, aki nagyon szereti a mézet?</t>
-  </si>
-  <si>
-    <t>Róla szól a „Százholdas Pagony” története.</t>
-  </si>
-  <si>
-    <t>Malacka barátja.</t>
-  </si>
-  <si>
-    <t>Micimackó</t>
+Mire Mysti a Míves Rétes-bolt elé ért, a bódé mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat. Ennek örömére kedvet kapott megkóstolni egy finom Meggyes-mákos rétest, ami az ország legjobb rétese.</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD81"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5805,19 +5805,19 @@
         <v>805</v>
       </c>
       <c r="F81" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="G81" t="s">
         <v>806</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>807</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>808</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>809</v>
-      </c>
-      <c r="J81" t="s">
-        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19FCF60-4FB2-4DEE-B501-245665A840FB}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ECE6311-2E2B-44BC-B47A-48337887F95A}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2461,10 +2461,6 @@
     <t>Mysti cica a Bókay-kertben</t>
   </si>
   <si>
-    <t>Egy napsütéses tavasz reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
-Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
-  </si>
-  <si>
     <t>47.43409501504324</t>
   </si>
   <si>
@@ -2583,6 +2579,10 @@
   <si>
     <t>**Míves Rétes bolt **
 Mire Mysti a Míves Rétes-bolt elé ért, a bódé mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat. Ennek örömére kedvet kapott megkóstolni egy finom Meggyes-mákos rétest, ami az ország legjobb rétese.</t>
+  </si>
+  <si>
+    <t>Egy napsütéses őszi reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
+Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
   </si>
 </sst>
 </file>
@@ -2892,9 +2892,9 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -3388,7 +3388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5683,25 +5683,25 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>776</v>
+      </c>
+      <c r="D77" t="s">
         <v>777</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" t="s">
         <v>779</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>780</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>781</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>782</v>
-      </c>
-      <c r="J77" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -5712,25 +5712,25 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
+        <v>783</v>
+      </c>
+      <c r="D78" t="s">
         <v>784</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="G78" t="s">
         <v>786</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>787</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>788</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>789</v>
-      </c>
-      <c r="J78" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -5741,25 +5741,25 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
+        <v>790</v>
+      </c>
+      <c r="D79" t="s">
         <v>791</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>793</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>794</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>567</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>795</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -5770,25 +5770,25 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>796</v>
+      </c>
+      <c r="D80" t="s">
         <v>797</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" t="s">
         <v>799</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>800</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>801</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>802</v>
-      </c>
-      <c r="J80" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -5799,25 +5799,25 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>803</v>
+      </c>
+      <c r="D81" t="s">
         <v>804</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="G81" t="s">
         <v>805</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>806</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>807</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>808</v>
-      </c>
-      <c r="J81" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ECE6311-2E2B-44BC-B47A-48337887F95A}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F5478B-AD4E-4DE6-9F1C-21669E3FEA16}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="846">
   <si>
     <t>id</t>
   </si>
@@ -2583,6 +2583,111 @@
   <si>
     <t>Egy napsütéses őszi reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
 Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
+  </si>
+  <si>
+    <t>hamu-teszt</t>
+  </si>
+  <si>
+    <t>Séta a Hamu utcában</t>
+  </si>
+  <si>
+    <t>Ügyesen végigmentél a Hamu utcán</t>
+  </si>
+  <si>
+    <t>thumbnails\hamu.png</t>
+  </si>
+  <si>
+    <t>Mysti cica Hamu utca teszt pálya</t>
+  </si>
+  <si>
+    <t>hamu-teszt2</t>
+  </si>
+  <si>
+    <t>Hamu utca felfedező mód</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>Séta a Hamu utcában Felfedező módban</t>
+  </si>
+  <si>
+    <t>több mint 3</t>
+  </si>
+  <si>
+    <t>kevesebb mint 5</t>
+  </si>
+  <si>
+    <t>47.43507289464755</t>
+  </si>
+  <si>
+    <t>19.164080330470053</t>
+  </si>
+  <si>
+    <t>47.434806047933854</t>
+  </si>
+  <si>
+    <t>19.163818598566962</t>
+  </si>
+  <si>
+    <t>47.43447248763882</t>
+  </si>
+  <si>
+    <t>19.16349996842407</t>
+  </si>
+  <si>
+    <t>47.43417228156073</t>
+  </si>
+  <si>
+    <t>19.163188924683958</t>
+  </si>
+  <si>
+    <t>47.433746345218</t>
+  </si>
+  <si>
+    <t>19.16281339630088</t>
+  </si>
+  <si>
+    <t>A ködös utca: Egy hűvös, ködös estén indult haza a kihalt utcán. A lámpák fénye sárgásan vibrált, mintha a levegő is lélegezne. A távolban egy csendes, alig hallható dorombolás hangja szűrődött át a ködből.</t>
+  </si>
+  <si>
+    <t>Amikor felébredt, ugyanazon az utcán állt, de a hajnal fénye áttört a házak között. Az órásbolt helyén már csak egy omladozó téglaépület maradt, rajta a felirat: Bezárt 1952-ben. A macska árnyéka még egyszer átsuhant a falon – majd eltűnt a napfényben.</t>
+  </si>
+  <si>
+    <t>Mysti cica nesztelen léptekkel sétált majd megpillantott egy érdekes házat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysti  óvatosan lépett közelebb az árnyékban ülő, titokzatos állathoz </t>
+  </si>
+  <si>
+    <t>tobb mint 2</t>
+  </si>
+  <si>
+    <t>kevesebb mint 4</t>
+  </si>
+  <si>
+    <t>tobb mint 5</t>
+  </si>
+  <si>
+    <t>kevesebb mint 7</t>
+  </si>
+  <si>
+    <t>tobb mint 8</t>
+  </si>
+  <si>
+    <t>kevesebb mint 10</t>
+  </si>
+  <si>
+    <t>2+2= ?</t>
+  </si>
+  <si>
+    <t>1+2= ?</t>
+  </si>
+  <si>
+    <t>3+3= ?</t>
+  </si>
+  <si>
+    <t>5+4= ?</t>
   </si>
 </sst>
 </file>
@@ -2890,11 +2995,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3081,13 +3186,13 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>684</v>
+        <v>811</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>685</v>
+        <v>815</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -3095,34 +3200,31 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>686</v>
+      <c r="F6" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>689</v>
+        <v>822</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>687</v>
+        <v>823</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>688</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>270</v>
+        <v>816</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>818</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>271</v>
+        <v>817</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -3131,33 +3233,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>276</v>
+        <v>819</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>272</v>
+        <v>822</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
+        <v>823</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>274</v>
+        <v>813</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>275</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>684</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>685</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3165,31 +3264,34 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
+      <c r="F8" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>689</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>690</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>266</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>117</v>
+      <c r="C9" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3197,31 +3299,34 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>118</v>
+      <c r="F9" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>121</v>
+        <v>273</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>142</v>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3229,31 +3334,31 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>143</v>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C11" t="s">
-        <v>182</v>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -3261,66 +3366,63 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>183</v>
+      <c r="F11" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>269</v>
+        <v>120</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>277</v>
+      <c r="A12" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>295</v>
+      <c r="C12" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>296</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>298</v>
+        <v>145</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>334</v>
+      <c r="C13" t="s">
+        <v>182</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3329,47 +3431,119 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,11 +3558,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77:F81"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5818,6 +5992,238 @@
       </c>
       <c r="J81" t="s">
         <v>808</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="J82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J83" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B84" s="4">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="J84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J85" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B88" s="4">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="J88" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B89" s="4">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J89" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/.tmp.driveupload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F5478B-AD4E-4DE6-9F1C-21669E3FEA16}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627369D0-ECBB-420F-BB17-28B06D1046B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="849">
   <si>
     <t>id</t>
   </si>
@@ -2688,6 +2688,15 @@
   </si>
   <si>
     <t>5+4= ?</t>
+  </si>
+  <si>
+    <t>2025-advent</t>
+  </si>
+  <si>
+    <t>Kispest Kertváros - 2025 Adventi Ablakok</t>
+  </si>
+  <si>
+    <t>47.434879043711284, 19.1640427</t>
   </si>
 </sst>
 </file>
@@ -3514,10 +3523,25 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/.tmp.driveupload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627369D0-ECBB-420F-BB17-28B06D1046B0}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7ADB3DB-9562-4A16-97BA-292E85EAFE1B}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="989">
   <si>
     <t>id</t>
   </si>
@@ -2693,10 +2693,459 @@
     <t>2025-advent</t>
   </si>
   <si>
-    <t>Kispest Kertváros - 2025 Adventi Ablakok</t>
-  </si>
-  <si>
-    <t>47.434879043711284, 19.1640427</t>
+    <t>47.434879043711284</t>
+  </si>
+  <si>
+    <t>19.1640427</t>
+  </si>
+  <si>
+    <t>thumbnails\advent.png</t>
+  </si>
+  <si>
+    <t>47.428735816260826</t>
+  </si>
+  <si>
+    <t>19.164302815339948</t>
+  </si>
+  <si>
+    <t>47.428727297944654</t>
+  </si>
+  <si>
+    <t>19.1638526031475</t>
+  </si>
+  <si>
+    <t>47.43149699852693</t>
+  </si>
+  <si>
+    <t>19.16086574783501</t>
+  </si>
+  <si>
+    <t>47.43366280673826</t>
+  </si>
+  <si>
+    <t>19.159475715818864</t>
+  </si>
+  <si>
+    <t>47.43485086962542</t>
+  </si>
+  <si>
+    <t>19.162777721656262</t>
+  </si>
+  <si>
+    <t>47.430506278067234</t>
+  </si>
+  <si>
+    <t>19.1643828263748</t>
+  </si>
+  <si>
+    <t>47.432436776242476</t>
+  </si>
+  <si>
+    <t>19.165359715348536</t>
+  </si>
+  <si>
+    <t>47.43080704454493</t>
+  </si>
+  <si>
+    <t>19.160746885299115</t>
+  </si>
+  <si>
+    <t>47.432286545464706</t>
+  </si>
+  <si>
+    <t>19.162516564533714</t>
+  </si>
+  <si>
+    <t>47.42931066068695</t>
+  </si>
+  <si>
+    <t>19.164801581764085</t>
+  </si>
+  <si>
+    <t>47.43587136959926</t>
+  </si>
+  <si>
+    <t>19.16048885073042</t>
+  </si>
+  <si>
+    <t>47.433427518606635</t>
+  </si>
+  <si>
+    <t>19.16142017420019</t>
+  </si>
+  <si>
+    <t>47.431209309758465</t>
+  </si>
+  <si>
+    <t>19.16683849010461</t>
+  </si>
+  <si>
+    <t>47.43299582737872</t>
+  </si>
+  <si>
+    <t>19.163120077313387</t>
+  </si>
+  <si>
+    <t>47.43511137363318</t>
+  </si>
+  <si>
+    <t>19.155465436162856</t>
+  </si>
+  <si>
+    <t>47.43384035132078</t>
+  </si>
+  <si>
+    <t>19.161816692189255</t>
+  </si>
+  <si>
+    <t>47.43029413452023</t>
+  </si>
+  <si>
+    <t>19.16709305912959</t>
+  </si>
+  <si>
+    <t>47.43165610661716</t>
+  </si>
+  <si>
+    <t>19.165163291817347</t>
+  </si>
+  <si>
+    <t>47.43229390182145</t>
+  </si>
+  <si>
+    <t>19.159591880065094</t>
+  </si>
+  <si>
+    <t>47.43115319360409</t>
+  </si>
+  <si>
+    <t>19.16062673078048</t>
+  </si>
+  <si>
+    <t>47.4313062434665</t>
+  </si>
+  <si>
+    <t>19.16275386385968</t>
+  </si>
+  <si>
+    <t>47.430104753514605</t>
+  </si>
+  <si>
+    <t>19.165240966608923</t>
+  </si>
+  <si>
+    <t>47.43442614598677</t>
+  </si>
+  <si>
+    <t>19.15542173525088</t>
+  </si>
+  <si>
+    <t>47.43641909969483</t>
+  </si>
+  <si>
+    <t>19.151064042492795</t>
+  </si>
+  <si>
+    <t>47.43618047504287</t>
+  </si>
+  <si>
+    <t>19.153556583374773</t>
+  </si>
+  <si>
+    <t>Kispest Kertváros - 2025 Adventi Ablak keresés</t>
+  </si>
+  <si>
+    <t>Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>2025-Télapó</t>
+  </si>
+  <si>
+    <t>47.43111064897591</t>
+  </si>
+  <si>
+    <t>19.16439309093158</t>
+  </si>
+  <si>
+    <t>47.43125178999755</t>
+  </si>
+  <si>
+    <t>19.163785927235104</t>
+  </si>
+  <si>
+    <t>47.43073824260392</t>
+  </si>
+  <si>
+    <t>19.163489284957176</t>
+  </si>
+  <si>
+    <t>47.43014700956054</t>
+  </si>
+  <si>
+    <t>19.16316074565724</t>
+  </si>
+  <si>
+    <t>47.429456510001145</t>
+  </si>
+  <si>
+    <t>19.162650393341412</t>
+  </si>
+  <si>
+    <t>47.42896452354228</t>
+  </si>
+  <si>
+    <t>19.163345748375168</t>
+  </si>
+  <si>
+    <t>47.42842074368179</t>
+  </si>
+  <si>
+    <t>19.16415593267923</t>
+  </si>
+  <si>
+    <t>47.42850274258807</t>
+  </si>
+  <si>
+    <t>19.165205344613646</t>
+  </si>
+  <si>
+    <t>47.42926662102055</t>
+  </si>
+  <si>
+    <t>19.16669174570518</t>
+  </si>
+  <si>
+    <t>47.42948456170437</t>
+  </si>
+  <si>
+    <t>19.165859233505845</t>
+  </si>
+  <si>
+    <t>47.42968092333961</t>
+  </si>
+  <si>
+    <t>19.165001203699095</t>
+  </si>
+  <si>
+    <t>47.43081160681889</t>
+  </si>
+  <si>
+    <t>19.16556897067205</t>
+  </si>
+  <si>
+    <t>A MANÓK AJÁNDÉKMENTŐ KÜLDETÉSE</t>
+  </si>
+  <si>
+    <t>Az Északi-sarkon egész éjjel sűrű pelyhekben esett a hó.
+Aki csak kimerészkedett a szabadba, dideregve szaladt vissza a házba, mihelyt végzett a dolgával. A Mikulás otthonában a manók szorgosan csomagolták az ajándékokat. Néha mosolyogva felpillantottak, és az ablakon túl táncoló hópelyheket nézték, amelyek egymást kergették a tomboló szélben.</t>
+  </si>
+  <si>
+    <t>Sz</t>
+  </si>
+  <si>
+    <t>Odabent a kandallóban vidáman sustorogva pattogott a tűz. Az asztalokon színes papírok, szalagok és csillogó masnik voltak mindenütt, csattogtak a piciny ollók, sercegett a csomagolópapír.
+Közeledett a nap, amikor a Mikulásnak el kellett indulnia a mindenféle meglepetéssel megrakott szánon, hogy kiossza az ajándékokat a gyerekeknek.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Egyszer csak Tücsök, az egyik legszorgalmasabb manó halk puffanást hallott odakintről.
+– Mi volt ez? – kapta fel a fejét, és még a szalag is kiesett a kezéből, amit éppen készült ráhelyezni az egyik dobozra.
+A többi manó is elhallgatott. Csuporka, a legkisebb közülük odament a bejárati ajtóhoz, és kinyitotta. Rémülten látta, hogy a rénszarvasok szánja felborult, a rakomány pedig – több száz szépen becsomagolt ajándék – szanaszét hever a hóban.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A szán egyik oldalán ott toporgott Szélvész, a rénszarvas, és látszott rajta, hogy nagyon meg van ijedve. Bóbita, a másik rénszarvas futva távolodott, már csak egy apró pont volt a láthatár szélén.
+– Ó, hogy a karácsonyi manó üsse meg a bokáját! – bosszankodott Tücsök. – Biztosan a szél borította fel a szánkót!</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Mit tegyünk? – kérdezte nagy szemekkel Csuporka. – A Mikulás azt mondta, éjfélre indulásra készen kell lennie a szánnak, most pedig a benti munka mellett még az itteni ajándékokat is újra kell pakolni, ráadásul egy manócsapatnak el kell indulnia megkeresni Bóbitát!
+A hóvihar egyre erősödött, a szél bömbölve fújtatott, és a sűrű hópelyhek kezdték betakarni az ajándékokat.
+</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>– Nem búsulunk, Manók! – kiáltott Tücsök. – Három csapatra oszlunk, és éjfélre készen leszünk!
+– Borbolya, két manóval indulj el Szélvész hátán, ő még a hó alatt is kiszagolja, merre futhatott Bóbita!
+– Csuporka, bár te vagy a legfiatalabb, nagyon ügyesen dolgoztál eddig. Fogd a manókat, és odabent fejezzétek be a csomagolást!
+– Mi pedig idekint visszaborítjuk a szánkót, és felpakoljuk az ajándékokat.
+Munkára, Manók! Amikor készen leszünk, forró kakaóval fogunk ünnepelni!</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Borbolya manó két barátjával odafutott Szélvészhez, halk, suttogó hangon megnyugtatták, adtak neki egy répát a nagy ijedelemre, majd a hátára ülve elindultak megkeresni Bóbitát. Nagyon hideg volt, de szorosan összebújtak Szélvész hátán. A rénszarvas ügetve szaglászott, és piros orra ragyogva mutatta, hogy egyre közeledik Bóbitához.
+Eközben Csuporka beszaladt a házba, és csilingelő hangon biztatta a manókat:
+– Ne csüggedjetek, Manók, ügyesek vagyunk, be tudjuk fejezni a csomagolást!
+Vidáman énekelve láttak újra munkához, és hamarosan növekedni kezdett a becsomagolt ajándékkupac a szorgosan dolgozó manók munkája nyomán.</t>
+  </si>
+  <si>
+    <t>Tücsök a legmarkosabb manólegényekkel visszaállította a szánkót, lesöpörték róla a havat, és elkezdték megkeresni az ajándékokat. Nem volt könnyű dolguk, alig néhány ajándékot találtak meg, a többi már eltűnt a hó alatt.
+Az egyik manó hirtelen arra lett figyelmes, hogy apró csillámok jelennek meg szanaszét a hóban.
+– Nézzétek! A csillámos szalagok mutatják, merre találjuk a becsomagolt ajándékokat!
+Lázas munka vette kezdetét, a manók megkeresték az ajándékokat, és szépen visszapakolták a szánra.</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Órák teltek el. Egyszer csak a távolban csilingelés hallatszott, a három manó sapkáján vidáman csilingelt a csengő, és Borbolyával az élen kipirosodott orral ügettek vissza Szélvész hátán, Bóbita pedig ott kocogott mögöttük.
+Tücsök éppen ekkor helyezte fel az utolsó ajándékot a szánra.
+– Gyertek, nézzük meg, hogy állnak a többiek! – mondta a manóknak.</t>
+  </si>
+  <si>
+    <t>Az átfázott manók beléptek az ajtón, és majdnem összeütköztek Csuporkával, aki a meglepetéstől hátratántorodott, és a fenekére esett.
+– Éppen most akartam szólni, hogy kész van a forró kakaó! – nevetett, és Tücsök a vidám kacagásból már tudta, hogy ők is elkészültek a munkával, és az ajándékok készen állnak arra, hogy a Mikulás kiszállítsa őket a gyerekeknek.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Hamarosan minden manó kezében ott volt a kakaó, és halkan szürcsölgetve itták a forró italt.
+Tücsök felállt, végignézett a fáradt manóarcokon, és mosolyogva mondta:
+– Büszke vagyok rátok, Manók! Ma éjszaka minden gyerek megkaphatja az ajándékát, és ezt nektek köszönhetik. Ügyesek voltatok!
+A manók pedig, mikor megitták a kakaót, felálltak, és örömükben végigtáncolták a házikót.
+Gyerekek, nézzétek meg a Közösségi Házban, hozzátok is megérkezett-e a Mikulás!</t>
+  </si>
+  <si>
+    <t>szaloncukor</t>
+  </si>
+  <si>
+    <t>Tudod a Jelszót?</t>
+  </si>
+  <si>
+    <t>Gyerekek, nézzétek meg a Közösségi Házban, hozzátok is megérkezett-e a Mikulás!</t>
+  </si>
+  <si>
+    <t>thumbnails\telapo.png</t>
+  </si>
+  <si>
+    <t>Ny</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>🎄✨ Kertvárosi Adventi Ablakok – 2025 ✨🎄
+Idén is elindul a Kertvárosi Adventi Ablakvadászat!
+Minden nap keresd meg a számozott adventi ablakokat, és jegyezd fel az adott napon megjelenő betűt. Ahogy közeledik a karácsony, egyre több betű gyűlik össze – karácsony estére pedig összeáll a teljes kertvárosi üzenet. 💫</t>
+  </si>
+  <si>
+    <t>Gratulálunk megtaláltad az összes ablakot! 
+Ha megfejtetted az üzenetet, küldd el nekünk e-mailben:
+📩 kispestkke.kapcsolat@gamil.com
+✨ Az első 10 helyes megfejtők ajándékot kapnak  🎁🎉</t>
+  </si>
+  <si>
+    <t>Karácsonfára is szoktuk akasztani.</t>
+  </si>
+  <si>
+    <t>Finom édesség</t>
+  </si>
+  <si>
+    <t>2025 Adventi időszakra békés, meleg fényeket kívánunk!</t>
+  </si>
+  <si>
+    <t>Legyen az ünnepvárás tele nyugalommal, szeretettel és apró örömökkel.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy minden gyertyafény egy kis reménnyel töltse meg a napjaidat.</t>
+  </si>
+  <si>
+    <t>Az advent csendje hozza el a szívedbe mindazt, amire igazán vágysz.</t>
+  </si>
+  <si>
+    <t>Legyen ez az időszak meghitt, szeretetteljes és inspiráló.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy minden nap találj valami apró csodát!</t>
+  </si>
+  <si>
+    <t>A várakozás legyen könnyű, a hangulat pedig ünnepi és meleg.</t>
+  </si>
+  <si>
+    <t>Kísérjen végig az adventi időszakban a béke és a remény.</t>
+  </si>
+  <si>
+    <t>Legyen tele ez a hónap kedvességgel és mosollyal.</t>
+  </si>
+  <si>
+    <t>Szívedet melegítse át az ünnepvárás minden pillanata.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy a fények ragyogása a lelkedben is visszatükröződjön.</t>
+  </si>
+  <si>
+    <t>Advent varázsa tegyen széppé minden napot.</t>
+  </si>
+  <si>
+    <t>A szeretet ereje kísérjen végig az ünnepek felé vezető úton.</t>
+  </si>
+  <si>
+    <t>Találj megnyugvást a csendben, örömöt az apróságokban.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy az adventi idő melegséget hozzon otthonodba.</t>
+  </si>
+  <si>
+    <t>A készülődés legyen könnyed, örömteli és szívhez szóló.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy a fények ragyogása kísérje minden lépésedet.</t>
+  </si>
+  <si>
+    <t>A várakozás napjai töltsenek el derűvel és reménnyel.</t>
+  </si>
+  <si>
+    <t>Legyen ez az időszak pihentető, békés és harmonikus.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy a közelgő ünnep melegsége már most átjárjon.</t>
+  </si>
+  <si>
+    <t>Engedd, hogy az adventi hangulat örömöt hozzon minden napodba.</t>
+  </si>
+  <si>
+    <t>A szeretet fénye világítsa meg a téli napokat.</t>
+  </si>
+  <si>
+    <t>Kívánjuk, hogy ez az időszak hozzon örömöt, együttlétet és mosolyt.</t>
+  </si>
+  <si>
+    <t>Áldott, szeretettel teli adventi készülődést kívánunk!</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2785,6 +3234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3004,11 +3454,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3067,45 +3517,46 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>904</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>765</v>
+        <v>929</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>929</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>264</v>
+        <v>905</v>
+      </c>
+      <c r="H2" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>373</v>
+        <v>846</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>818</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>609</v>
+        <v>900</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3114,94 +3565,95 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>608</v>
+        <v>962</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>765</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>770</v>
+        <v>373</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>810</v>
+      <c r="F5" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>772</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>774</v>
+        <v>23</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>775</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>811</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>815</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -3209,63 +3661,63 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>812</v>
+      <c r="F6" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>822</v>
+        <v>218</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>813</v>
+        <v>219</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>814</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>819</v>
+      <c r="F7" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>822</v>
+        <v>772</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>813</v>
+        <v>773</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>774</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>814</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>684</v>
+        <v>811</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>685</v>
+        <v>815</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3273,34 +3725,31 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>686</v>
+      <c r="F8" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>689</v>
+        <v>822</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>687</v>
+        <v>823</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>688</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>270</v>
+        <v>816</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>818</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>817</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3309,33 +3758,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>276</v>
+        <v>819</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>272</v>
+        <v>822</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
+        <v>823</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>274</v>
+        <v>813</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>275</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>684</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>685</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3343,31 +3789,34 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>79</v>
+      <c r="F10" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>689</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>690</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>266</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>117</v>
+      <c r="C11" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -3375,31 +3824,34 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>118</v>
+      <c r="F11" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>121</v>
+        <v>273</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>142</v>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -3407,31 +3859,31 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>143</v>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C13" t="s">
-        <v>182</v>
+      <c r="C13" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3439,66 +3891,63 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>183</v>
+      <c r="F13" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>269</v>
+        <v>120</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>277</v>
+      <c r="A14" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>295</v>
+      <c r="C14" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>296</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>298</v>
+        <v>145</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>334</v>
+      <c r="C15" t="s">
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -3507,67 +3956,103 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>335</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>332</v>
+        <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>818</v>
+      <c r="A16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>847</v>
+        <v>295</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3582,11 +4067,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3596,7 +4081,8 @@
     <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2"/>
+    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2"/>
     <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="2" customWidth="1"/>
     <col min="11" max="16384" width="12.6640625" style="2"/>
@@ -6249,6 +6735,855 @@
       <c r="J89" s="2">
         <v>9</v>
       </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D91" t="s">
+        <v>851</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D92" t="s">
+        <v>853</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D93" t="s">
+        <v>855</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D94" t="s">
+        <v>857</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B95" s="2">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D95" t="s">
+        <v>859</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D96" t="s">
+        <v>861</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D97" t="s">
+        <v>863</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B98" s="2">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D98" t="s">
+        <v>865</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D99" t="s">
+        <v>867</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B100" s="2">
+        <v>11</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D100" t="s">
+        <v>869</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B101" s="2">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D101" t="s">
+        <v>871</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B102" s="2">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D102" t="s">
+        <v>873</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B103" s="2">
+        <v>14</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D103" t="s">
+        <v>875</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B104" s="2">
+        <v>15</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D104" t="s">
+        <v>877</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B105" s="2">
+        <v>16</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D105" t="s">
+        <v>879</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B106" s="2">
+        <v>17</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D106" t="s">
+        <v>881</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B107" s="2">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D107" t="s">
+        <v>883</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B108" s="2">
+        <v>19</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D108" t="s">
+        <v>885</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B109" s="2">
+        <v>20</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D109" t="s">
+        <v>887</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B110" s="2">
+        <v>21</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D110" t="s">
+        <v>889</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B111" s="2">
+        <v>22</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D111" t="s">
+        <v>891</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B112" s="2">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D112" t="s">
+        <v>893</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B113" s="2">
+        <v>24</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D113" t="s">
+        <v>895</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B114" s="2">
+        <v>25</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D114" t="s">
+        <v>897</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B115" s="2">
+        <v>26</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D115" t="s">
+        <v>899</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D116" t="s">
+        <v>908</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D117" t="s">
+        <v>910</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D118" t="s">
+        <v>912</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D119" t="s">
+        <v>914</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D120" t="s">
+        <v>916</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D121" t="s">
+        <v>918</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B122" s="2">
+        <v>7</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D122" t="s">
+        <v>920</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B123" s="2">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D123" t="s">
+        <v>922</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B124" s="2">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D124" t="s">
+        <v>924</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B125" s="2">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D125" t="s">
+        <v>926</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B126" s="2">
+        <v>11</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D126" t="s">
+        <v>928</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A127" s="3"/>
+      <c r="D127"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7ADB3DB-9562-4A16-97BA-292E85EAFE1B}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB8B8D1-BC47-4D81-982F-1F6BC51AD483}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="990">
   <si>
     <t>id</t>
   </si>
@@ -3146,6 +3146,9 @@
   </si>
   <si>
     <t>Áldott, szeretettel teli adventi készülődést kívánunk!</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4069,9 +4072,9 @@
   </sheetPr>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7304,6 +7307,9 @@
       <c r="G114" s="2" t="s">
         <v>903</v>
       </c>
+      <c r="J114" s="2" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
@@ -7320,6 +7326,9 @@
       </c>
       <c r="G115" s="2" t="s">
         <v>903</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB8B8D1-BC47-4D81-982F-1F6BC51AD483}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AEF240-0B68-413E-A98E-AEE9BDDA45A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="991">
   <si>
     <t>id</t>
   </si>
@@ -3148,7 +3148,10 @@
     <t>Áldott, szeretettel teli adventi készülődést kívánunk!</t>
   </si>
   <si>
-    <t>?</t>
+    <t>ez vajon melyik</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4073,8 +4076,8 @@
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7304,6 +7307,9 @@
       <c r="D114" t="s">
         <v>897</v>
       </c>
+      <c r="F114" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="G114" s="2" t="s">
         <v>903</v>
       </c>
@@ -7324,6 +7330,9 @@
       <c r="D115" t="s">
         <v>899</v>
       </c>
+      <c r="F115" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="G115" s="2" t="s">
         <v>903</v>
       </c>
@@ -7595,7 +7604,7 @@
       <c r="D127"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:J126" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20AEF240-0B68-413E-A98E-AEE9BDDA45A9}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA081BD-BA44-4C7F-8D1A-C52D377E8428}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1016">
   <si>
     <t>id</t>
   </si>
@@ -2861,9 +2861,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
     <t>2025-Télapó</t>
   </si>
   <si>
@@ -3152,6 +3149,84 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Kolozsvár u. 57. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Zombor u. 1b. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Zombor u. 1e. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Hamu u. 47. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Brassó u. 36. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 8. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Csíki u. 48. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Pozsony u. 99. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Zombor u. 69. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Beszterce u. 36. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Tülök u. 48. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Nagyenyed u. 8. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 28. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Pozsony u. 113. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Beszterce u. 23. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Hárs u. 41. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 22. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 177. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Csíki u. 29. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 27. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Hamu u. 51. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 85. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Tülök u. 38. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 32. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Katona József u. 42. Milyen betűt találtál a táblán?</t>
+  </si>
+  <si>
+    <t>Léva u. 16. Milyen betűt találtál a táblán?</t>
   </si>
 </sst>
 </file>
@@ -3523,13 +3598,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3538,20 +3613,20 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="H2" t="s">
         <v>905</v>
-      </c>
-      <c r="H2" t="s">
-        <v>906</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3571,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>847</v>
@@ -3581,7 +3656,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>849</v>
@@ -4076,8 +4151,8 @@
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6756,10 +6831,10 @@
         <v>848</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>903</v>
+        <v>990</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>902</v>
@@ -6779,10 +6854,10 @@
         <v>851</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>903</v>
+        <v>991</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6802,13 +6877,13 @@
         <v>853</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>903</v>
+        <v>992</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
@@ -6825,13 +6900,13 @@
         <v>855</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>903</v>
+        <v>993</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
@@ -6848,13 +6923,13 @@
         <v>857</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>903</v>
+        <v>994</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
@@ -6871,13 +6946,13 @@
         <v>859</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>903</v>
+        <v>995</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
@@ -6894,13 +6969,13 @@
         <v>861</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>903</v>
+        <v>996</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
@@ -6917,13 +6992,13 @@
         <v>863</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>903</v>
+        <v>997</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
@@ -6940,13 +7015,13 @@
         <v>865</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>903</v>
+        <v>998</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
@@ -6963,13 +7038,13 @@
         <v>867</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>903</v>
+        <v>999</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
@@ -6986,13 +7061,13 @@
         <v>869</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>903</v>
+        <v>1000</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
@@ -7009,13 +7084,13 @@
         <v>871</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>903</v>
+        <v>1001</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
@@ -7032,13 +7107,13 @@
         <v>873</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>903</v>
+        <v>1002</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
@@ -7055,13 +7130,13 @@
         <v>875</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>903</v>
+        <v>1003</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
@@ -7078,13 +7153,13 @@
         <v>877</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>903</v>
+        <v>1004</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
@@ -7101,13 +7176,13 @@
         <v>879</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>903</v>
+        <v>1005</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
@@ -7124,13 +7199,13 @@
         <v>881</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>903</v>
+        <v>1006</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
@@ -7147,13 +7222,13 @@
         <v>883</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>903</v>
+        <v>1007</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
@@ -7170,13 +7245,13 @@
         <v>885</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>903</v>
+        <v>1008</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
@@ -7193,13 +7268,13 @@
         <v>887</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>903</v>
+        <v>1009</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
@@ -7216,13 +7291,13 @@
         <v>889</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>903</v>
+        <v>1010</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
@@ -7239,13 +7314,13 @@
         <v>891</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>903</v>
+        <v>1011</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
@@ -7262,13 +7337,13 @@
         <v>893</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
@@ -7285,13 +7360,13 @@
         <v>895</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>903</v>
+        <v>1013</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
@@ -7308,13 +7383,13 @@
         <v>897</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>903</v>
+        <v>1014</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
@@ -7331,168 +7406,168 @@
         <v>899</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>903</v>
+        <v>1015</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D116" t="s">
         <v>907</v>
       </c>
-      <c r="D116" t="s">
-        <v>908</v>
-      </c>
       <c r="F116" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B117" s="2">
         <v>2</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D117" t="s">
         <v>909</v>
       </c>
-      <c r="D117" t="s">
-        <v>910</v>
-      </c>
       <c r="F117" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B118" s="2">
         <v>3</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D118" t="s">
         <v>911</v>
       </c>
-      <c r="D118" t="s">
-        <v>912</v>
-      </c>
       <c r="F118" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B119" s="2">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D119" t="s">
         <v>913</v>
       </c>
-      <c r="D119" t="s">
-        <v>914</v>
-      </c>
       <c r="F119" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B120" s="2">
         <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D120" t="s">
         <v>915</v>
       </c>
-      <c r="D120" t="s">
-        <v>916</v>
-      </c>
       <c r="F120" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B121" s="2">
         <v>6</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D121" t="s">
         <v>917</v>
       </c>
-      <c r="D121" t="s">
-        <v>918</v>
-      </c>
       <c r="F121" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B122" s="2">
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D122" t="s">
         <v>919</v>
       </c>
-      <c r="D122" t="s">
-        <v>920</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>901</v>
@@ -7503,100 +7578,100 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B123" s="2">
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D123" t="s">
         <v>921</v>
       </c>
-      <c r="D123" t="s">
-        <v>922</v>
-      </c>
       <c r="F123" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B124" s="2">
         <v>9</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D124" t="s">
         <v>923</v>
       </c>
-      <c r="D124" t="s">
-        <v>924</v>
-      </c>
       <c r="F124" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B125" s="2">
         <v>10</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D125" t="s">
         <v>925</v>
       </c>
-      <c r="D125" t="s">
-        <v>926</v>
-      </c>
       <c r="F125" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B126" s="2">
         <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D126" t="s">
         <v>927</v>
       </c>
-      <c r="D126" t="s">
-        <v>928</v>
-      </c>
       <c r="F126" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA081BD-BA44-4C7F-8D1A-C52D377E8428}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5627FAB-19DB-48D7-8243-FC8C3F8F6C70}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1024">
   <si>
     <t>id</t>
   </si>
@@ -3023,9 +3023,6 @@
     <t>szaloncukor</t>
   </si>
   <si>
-    <t>Tudod a Jelszót?</t>
-  </si>
-  <si>
     <t>Gyerekek, nézzétek meg a Közösségi Házban, hozzátok is megérkezett-e a Mikulás!</t>
   </si>
   <si>
@@ -3151,82 +3148,109 @@
     <t>.</t>
   </si>
   <si>
-    <t>Kolozsvár u. 57. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Zombor u. 1b. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Zombor u. 1e. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Hamu u. 47. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Brassó u. 36. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Udvarhely u. 8. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Csíki u. 48. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Pozsony u. 99. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Zombor u. 69. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Beszterce u. 36. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Tülök u. 48. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Nagyenyed u. 8. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Udvarhely u. 28. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Pozsony u. 113. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Beszterce u. 23. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Hárs u. 41. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Udvarhely u. 22. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Temesvár u. 177. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Csíki u. 29. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Temesvár u. 27. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Hamu u. 51. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Temesvár u. 85. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Tülök u. 38. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Temesvár u. 32. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Katona József u. 42. Milyen betűt találtál a táblán?</t>
-  </si>
-  <si>
-    <t>Léva u. 16. Milyen betűt találtál a táblán?</t>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>47.42854896985231</t>
+  </si>
+  <si>
+    <t>19.164688552166787</t>
+  </si>
+  <si>
+    <t>47.430378427868696</t>
+  </si>
+  <si>
+    <t>19.16433814555906</t>
+  </si>
+  <si>
+    <t>A betűket összeolvasva megkapod a jelszót:</t>
+  </si>
+  <si>
+    <t>Beszterce u. 36. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Katona József u. 42. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Beszterce u. 23. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Zombor u. 69. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Csíki u. 29. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Zombor u. 1e. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Hamu u. 51. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Zombor u. 1b. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Tülök u. 38. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Nagyszeben u. 25. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Hamu u. 47. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Tülök u. 48. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Csíki u. 56. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 22. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 85. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 177. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Hárs u. 41. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Nagyenyed u. 8. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Pozsony u. 99. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Brassó u. 36. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Kolozsvár u. 57. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 32. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Csíki u. 48. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Tülök u. 65. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 8. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Léva u. 16. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Udvarhely u. 28. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Temesvár u. 27. Milyen betűt találtál?</t>
   </si>
 </sst>
 </file>
@@ -3271,12 +3295,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3292,7 +3322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3316,6 +3346,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3539,7 +3571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3612,9 +3644,7 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>928</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="2" t="s">
         <v>904</v>
       </c>
@@ -3623,10 +3653,10 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3646,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>847</v>
@@ -3656,7 +3686,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>849</v>
@@ -4148,11 +4178,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6822,22 +6852,28 @@
         <v>846</v>
       </c>
       <c r="B90" s="2">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D90" t="s">
+        <v>867</v>
+      </c>
+      <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>848</v>
-      </c>
       <c r="F90" s="10" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>990</v>
+        <v>996</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>902</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>902</v>
+        <v>953</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
@@ -6845,22 +6881,28 @@
         <v>846</v>
       </c>
       <c r="B91" s="2">
+        <v>25</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D91" t="s">
+        <v>897</v>
+      </c>
+      <c r="E91" s="2">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D91" t="s">
-        <v>851</v>
-      </c>
       <c r="F91" s="10" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>991</v>
+        <v>997</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>30</v>
+        <v>987</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
@@ -6868,22 +6910,28 @@
         <v>846</v>
       </c>
       <c r="B92" s="2">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D92" t="s">
+        <v>877</v>
+      </c>
+      <c r="E92" s="2">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D92" t="s">
-        <v>853</v>
-      </c>
       <c r="F92" s="10" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>992</v>
+        <v>998</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>989</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
@@ -6891,22 +6939,28 @@
         <v>846</v>
       </c>
       <c r="B93" s="2">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D93" t="s">
+        <v>865</v>
+      </c>
+      <c r="E93" s="2">
         <v>4</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="D93" t="s">
-        <v>855</v>
-      </c>
       <c r="F93" s="10" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>993</v>
+        <v>999</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
@@ -6914,22 +6968,28 @@
         <v>846</v>
       </c>
       <c r="B94" s="2">
+        <v>19</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D94" t="s">
+        <v>885</v>
+      </c>
+      <c r="E94" s="2">
         <v>5</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="D94" t="s">
-        <v>857</v>
-      </c>
       <c r="F94" s="10" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>994</v>
+        <v>1000</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
@@ -6937,22 +6997,28 @@
         <v>846</v>
       </c>
       <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D95" t="s">
+        <v>853</v>
+      </c>
+      <c r="E95" s="12">
         <v>6</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D95" t="s">
-        <v>859</v>
-      </c>
       <c r="F95" s="10" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>995</v>
+        <v>1001</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>932</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
@@ -6960,19 +7026,25 @@
         <v>846</v>
       </c>
       <c r="B96" s="2">
+        <v>21</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D96" t="s">
+        <v>889</v>
+      </c>
+      <c r="E96" s="2">
         <v>7</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D96" t="s">
-        <v>861</v>
-      </c>
       <c r="F96" s="10" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>996</v>
+        <v>1002</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>943</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>943</v>
@@ -6983,22 +7055,28 @@
         <v>846</v>
       </c>
       <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D97" t="s">
+        <v>851</v>
+      </c>
+      <c r="E97" s="2">
         <v>8</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D97" t="s">
-        <v>863</v>
-      </c>
       <c r="F97" s="10" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>997</v>
+        <v>1003</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>953</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
@@ -7006,22 +7084,28 @@
         <v>846</v>
       </c>
       <c r="B98" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="D98" t="s">
-        <v>865</v>
+        <v>893</v>
+      </c>
+      <c r="E98" s="2">
+        <v>8</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>998</v>
+        <v>1004</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
@@ -7029,22 +7113,28 @@
         <v>846</v>
       </c>
       <c r="B99" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D99" t="s">
-        <v>867</v>
+        <v>875</v>
+      </c>
+      <c r="E99" s="2">
+        <v>9</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>999</v>
+        <v>1005</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
@@ -7052,22 +7142,28 @@
         <v>846</v>
       </c>
       <c r="B100" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="D100" t="s">
-        <v>869</v>
+        <v>855</v>
+      </c>
+      <c r="E100" s="2">
+        <v>10</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1000</v>
+        <v>1006</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
@@ -7075,45 +7171,47 @@
         <v>846</v>
       </c>
       <c r="B101" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D101" t="s">
-        <v>871</v>
+        <v>869</v>
+      </c>
+      <c r="E101" s="11">
+        <v>10</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1001</v>
+        <v>1007</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B102" s="2">
-        <v>13</v>
-      </c>
+      <c r="A102" s="3"/>
       <c r="C102" s="2" t="s">
-        <v>872</v>
+        <v>993</v>
       </c>
       <c r="D102" t="s">
-        <v>873</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>976</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="E102" s="11">
+        <v>11</v>
+      </c>
+      <c r="F102" s="10"/>
       <c r="G102" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>946</v>
+        <v>1008</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
@@ -7121,22 +7219,28 @@
         <v>846</v>
       </c>
       <c r="B103" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D103" t="s">
-        <v>875</v>
+        <v>881</v>
+      </c>
+      <c r="E103" s="2">
+        <v>12</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1003</v>
+        <v>1009</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>955</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
@@ -7144,22 +7248,28 @@
         <v>846</v>
       </c>
       <c r="B104" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="D104" t="s">
-        <v>877</v>
+        <v>891</v>
+      </c>
+      <c r="E104" s="2">
+        <v>13</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1004</v>
+        <v>1010</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
@@ -7167,22 +7277,28 @@
         <v>846</v>
       </c>
       <c r="B105" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D105" t="s">
-        <v>879</v>
+        <v>883</v>
+      </c>
+      <c r="E105" s="2">
+        <v>14</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1005</v>
+        <v>1011</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>936</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
@@ -7190,22 +7306,28 @@
         <v>846</v>
       </c>
       <c r="B106" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D106" t="s">
-        <v>881</v>
+        <v>879</v>
+      </c>
+      <c r="E106" s="2">
+        <v>15</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1006</v>
+        <v>1012</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>956</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>930</v>
+        <v>957</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
@@ -7213,22 +7335,28 @@
         <v>846</v>
       </c>
       <c r="B107" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D107" t="s">
-        <v>883</v>
+        <v>871</v>
+      </c>
+      <c r="E107" s="2">
+        <v>16</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1007</v>
+        <v>1013</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>957</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
@@ -7236,22 +7364,28 @@
         <v>846</v>
       </c>
       <c r="B108" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="D108" t="s">
-        <v>885</v>
+        <v>863</v>
+      </c>
+      <c r="E108" s="2">
+        <v>17</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1008</v>
+        <v>1014</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
@@ -7259,22 +7393,28 @@
         <v>846</v>
       </c>
       <c r="B109" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="D109" t="s">
-        <v>887</v>
+        <v>857</v>
+      </c>
+      <c r="E109" s="2">
+        <v>18</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1009</v>
+        <v>1015</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>957</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
@@ -7282,22 +7422,28 @@
         <v>846</v>
       </c>
       <c r="B110" s="2">
-        <v>21</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="D110" t="s">
-        <v>889</v>
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E110" s="2">
+        <v>19</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1010</v>
+        <v>1016</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>943</v>
+        <v>902</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
@@ -7305,22 +7451,28 @@
         <v>846</v>
       </c>
       <c r="B111" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D111" t="s">
-        <v>891</v>
+        <v>895</v>
+      </c>
+      <c r="E111" s="11">
+        <v>19</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1011</v>
+        <v>1017</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>954</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
@@ -7328,45 +7480,43 @@
         <v>846</v>
       </c>
       <c r="B112" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
       <c r="D112" t="s">
-        <v>893</v>
+        <v>861</v>
+      </c>
+      <c r="E112" s="2">
+        <v>20</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1012</v>
+        <v>1018</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B113" s="2">
-        <v>24</v>
-      </c>
+      <c r="A113" s="3"/>
       <c r="C113" s="2" t="s">
-        <v>894</v>
+        <v>991</v>
       </c>
       <c r="D113" t="s">
-        <v>895</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>987</v>
+        <v>992</v>
+      </c>
+      <c r="E113" s="2">
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>938</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
@@ -7374,22 +7524,28 @@
         <v>846</v>
       </c>
       <c r="B114" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>896</v>
+        <v>858</v>
       </c>
       <c r="D114" t="s">
-        <v>897</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>989</v>
+        <v>859</v>
+      </c>
+      <c r="E114" s="2">
+        <v>22</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>968</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1014</v>
+        <v>1020</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>958</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>988</v>
+        <v>932</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
@@ -7405,60 +7561,69 @@
       <c r="D115" t="s">
         <v>899</v>
       </c>
+      <c r="E115" s="2">
+        <v>23</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1015</v>
+        <v>1021</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>903</v>
+        <v>846</v>
       </c>
       <c r="B116" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="D116" t="s">
-        <v>907</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>929</v>
+        <v>873</v>
+      </c>
+      <c r="E116" s="2">
+        <v>24</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>975</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>901</v>
+        <v>1022</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>903</v>
+        <v>846</v>
       </c>
       <c r="B117" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="D117" t="s">
-        <v>909</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>931</v>
+        <v>887</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>901</v>
+        <v>1023</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1">
@@ -7466,22 +7631,22 @@
         <v>903</v>
       </c>
       <c r="B118" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D118" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
@@ -7489,22 +7654,22 @@
         <v>903</v>
       </c>
       <c r="B119" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D119" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
@@ -7512,22 +7677,22 @@
         <v>903</v>
       </c>
       <c r="B120" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D120" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
@@ -7535,22 +7700,22 @@
         <v>903</v>
       </c>
       <c r="B121" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D121" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
@@ -7558,22 +7723,22 @@
         <v>903</v>
       </c>
       <c r="B122" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D122" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>248</v>
+        <v>938</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
@@ -7581,22 +7746,22 @@
         <v>903</v>
       </c>
       <c r="B123" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D123" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
@@ -7604,22 +7769,22 @@
         <v>903</v>
       </c>
       <c r="B124" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D124" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>936</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
@@ -7627,22 +7792,22 @@
         <v>903</v>
       </c>
       <c r="B125" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D125" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>901</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
@@ -7650,36 +7815,85 @@
         <v>903</v>
       </c>
       <c r="B126" s="2">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D126" t="s">
+        <v>923</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B127" s="2">
+        <v>10</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D127" t="s">
+        <v>925</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A128" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B128" s="2">
         <v>11</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D128" t="s">
         <v>927</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F128" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="H126" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="J126" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="3"/>
-      <c r="D127"/>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A129" s="3"/>
+      <c r="D129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J126" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:J128" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:J117">
+    <sortCondition ref="E90:E117"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5627FAB-19DB-48D7-8243-FC8C3F8F6C70}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEA3D14-DD62-4135-9FD0-E402C8D9B899}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1010">
   <si>
     <t>id</t>
   </si>
@@ -2702,12 +2702,6 @@
     <t>thumbnails\advent.png</t>
   </si>
   <si>
-    <t>47.428735816260826</t>
-  </si>
-  <si>
-    <t>19.164302815339948</t>
-  </si>
-  <si>
     <t>47.428727297944654</t>
   </si>
   <si>
@@ -2756,12 +2750,6 @@
     <t>19.162516564533714</t>
   </si>
   <si>
-    <t>47.42931066068695</t>
-  </si>
-  <si>
-    <t>19.164801581764085</t>
-  </si>
-  <si>
     <t>47.43587136959926</t>
   </si>
   <si>
@@ -2810,12 +2798,6 @@
     <t>19.165163291817347</t>
   </si>
   <si>
-    <t>47.43229390182145</t>
-  </si>
-  <si>
-    <t>19.159591880065094</t>
-  </si>
-  <si>
     <t>47.43115319360409</t>
   </si>
   <si>
@@ -2832,12 +2814,6 @@
   </si>
   <si>
     <t>19.165240966608923</t>
-  </si>
-  <si>
-    <t>47.43442614598677</t>
-  </si>
-  <si>
-    <t>19.15542173525088</t>
   </si>
   <si>
     <t>47.43641909969483</t>
@@ -3029,9 +3005,6 @@
     <t>thumbnails\telapo.png</t>
   </si>
   <si>
-    <t>Ny</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -3142,12 +3115,6 @@
     <t>Áldott, szeretettel teli adventi készülődést kívánunk!</t>
   </si>
   <si>
-    <t>ez vajon melyik</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
@@ -3190,21 +3157,12 @@
     <t>Hamu u. 51. Milyen betűt találtál?</t>
   </si>
   <si>
-    <t>Zombor u. 1b. Milyen betűt találtál?</t>
-  </si>
-  <si>
     <t>Tülök u. 38. Milyen betűt találtál?</t>
   </si>
   <si>
     <t>Nagyszeben u. 25. Milyen betűt találtál?</t>
   </si>
   <si>
-    <t>Hamu u. 47. Milyen betűt találtál?</t>
-  </si>
-  <si>
-    <t>Tülök u. 48. Milyen betűt találtál?</t>
-  </si>
-  <si>
     <t>Csíki u. 56. Milyen betűt találtál?</t>
   </si>
   <si>
@@ -3232,9 +3190,6 @@
     <t>Kolozsvár u. 57. Milyen betűt találtál?</t>
   </si>
   <si>
-    <t>Temesvár u. 32. Milyen betűt találtál?</t>
-  </si>
-  <si>
     <t>Csíki u. 48. Milyen betűt találtál?</t>
   </si>
   <si>
@@ -3250,7 +3205,10 @@
     <t>Udvarhely u. 28. Milyen betűt találtál?</t>
   </si>
   <si>
-    <t>Temesvár u. 27. Milyen betűt találtál?</t>
+    <t>Hamu u. 47/2. Milyen betűt találtál?</t>
+  </si>
+  <si>
+    <t>Egy betű</t>
   </si>
 </sst>
 </file>
@@ -3295,18 +3253,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3346,8 +3298,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3630,13 +3582,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3646,17 +3598,17 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="H2" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3667,7 +3619,7 @@
         <v>818</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3676,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>847</v>
@@ -3686,7 +3638,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>849</v>
@@ -4178,11 +4130,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6586,7 +6538,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>770</v>
       </c>
@@ -6615,7 +6567,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>811</v>
       </c>
@@ -6644,7 +6596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>811</v>
       </c>
@@ -6673,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>811</v>
       </c>
@@ -6702,7 +6654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
@@ -6731,7 +6683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>816</v>
       </c>
@@ -6760,7 +6712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>816</v>
       </c>
@@ -6789,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>816</v>
       </c>
@@ -6818,7 +6770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>816</v>
       </c>
@@ -6847,791 +6799,728 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B90" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D90" t="s">
-        <v>867</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
+        <v>865</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>902</v>
+        <v>985</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B91" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D91" t="s">
-        <v>897</v>
-      </c>
-      <c r="E91" s="2">
-        <v>2</v>
+        <v>889</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="I91" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B92" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D92" t="s">
-        <v>877</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
+        <v>873</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B93" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D93" t="s">
-        <v>865</v>
-      </c>
-      <c r="E93" s="2">
-        <v>4</v>
+        <v>863</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>952</v>
+        <v>988</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B94" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D94" t="s">
-        <v>885</v>
-      </c>
-      <c r="E94" s="2">
-        <v>5</v>
+        <v>881</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>943</v>
+        <v>989</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B95" s="2">
-        <v>3</v>
+      <c r="B95" s="11">
+        <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D95" t="s">
-        <v>853</v>
-      </c>
-      <c r="E95" s="12">
-        <v>6</v>
+        <v>851</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>932</v>
+        <v>990</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B96" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D96" t="s">
-        <v>889</v>
-      </c>
-      <c r="E96" s="2">
-        <v>7</v>
+        <v>883</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="D97" t="s">
-        <v>851</v>
-      </c>
-      <c r="E97" s="2">
-        <v>8</v>
+        <v>887</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B98" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="D98" t="s">
-        <v>893</v>
-      </c>
-      <c r="E98" s="2">
-        <v>8</v>
+        <v>871</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>952</v>
+        <v>993</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B99" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="D99" t="s">
-        <v>875</v>
-      </c>
-      <c r="E99" s="2">
-        <v>9</v>
+        <v>853</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>946</v>
+        <v>1008</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B100" s="2">
-        <v>4</v>
+      <c r="B100" s="11">
+        <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>854</v>
+        <v>982</v>
       </c>
       <c r="D100" t="s">
-        <v>855</v>
-      </c>
-      <c r="E100" s="2">
-        <v>10</v>
+        <v>983</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B101" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="D101" t="s">
-        <v>869</v>
-      </c>
-      <c r="E101" s="11">
-        <v>10</v>
+        <v>877</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="3"/>
+        <v>1009</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B102" s="2">
+        <v>13</v>
+      </c>
       <c r="C102" s="2" t="s">
-        <v>993</v>
+        <v>884</v>
       </c>
       <c r="D102" t="s">
-        <v>994</v>
-      </c>
-      <c r="E102" s="11">
-        <v>11</v>
-      </c>
-      <c r="F102" s="10"/>
+        <v>885</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>975</v>
+      </c>
       <c r="G102" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+        <v>996</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B103" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D103" t="s">
-        <v>881</v>
-      </c>
-      <c r="E103" s="2">
-        <v>12</v>
+        <v>879</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K103" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B104" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="D104" t="s">
-        <v>891</v>
-      </c>
-      <c r="E104" s="2">
-        <v>13</v>
+        <v>875</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>946</v>
+        <v>998</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B105" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="D105" t="s">
-        <v>883</v>
-      </c>
-      <c r="E105" s="2">
-        <v>14</v>
+        <v>867</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>936</v>
+        <v>999</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B106" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D106" t="s">
-        <v>879</v>
-      </c>
-      <c r="E106" s="2">
-        <v>15</v>
+        <v>861</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B107" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="D107" t="s">
-        <v>871</v>
-      </c>
-      <c r="E107" s="2">
-        <v>16</v>
+        <v>855</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>957</v>
+        <v>1001</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B108" s="2">
-        <v>8</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D108" t="s">
-        <v>863</v>
-      </c>
-      <c r="E108" s="2">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B109" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D109" t="s">
-        <v>857</v>
-      </c>
-      <c r="E109" s="2">
-        <v>18</v>
+        <v>859</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>957</v>
+        <v>1003</v>
       </c>
       <c r="J109" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="E110" s="2">
-        <v>19</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>963</v>
+        <v>21</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D110" t="s">
+        <v>981</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>977</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>954</v>
+        <v>1004</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B111" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>894</v>
+        <v>856</v>
       </c>
       <c r="D111" t="s">
-        <v>895</v>
-      </c>
-      <c r="E111" s="11">
-        <v>19</v>
+        <v>857</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>954</v>
+        <v>1005</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>846</v>
       </c>
       <c r="B112" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="D112" t="s">
-        <v>861</v>
-      </c>
-      <c r="E112" s="2">
-        <v>20</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>969</v>
+        <v>891</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>964</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="J112" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A113" s="3"/>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B113" s="2">
+        <v>24</v>
+      </c>
       <c r="C113" s="2" t="s">
-        <v>991</v>
+        <v>868</v>
       </c>
       <c r="D113" t="s">
-        <v>992</v>
-      </c>
-      <c r="E113" s="2">
-        <v>21</v>
+        <v>869</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>966</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+        <v>1007</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="B114" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="D114" t="s">
-        <v>859</v>
-      </c>
-      <c r="E114" s="2">
-        <v>22</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>968</v>
+        <v>899</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>921</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>958</v>
+        <v>893</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="B115" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D115" t="s">
-        <v>899</v>
-      </c>
-      <c r="E115" s="2">
-        <v>23</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>988</v>
+        <v>901</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>923</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>952</v>
+        <v>893</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="B116" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="D116" t="s">
-        <v>873</v>
-      </c>
-      <c r="E116" s="2">
-        <v>24</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>975</v>
+        <v>903</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>925</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>938</v>
+        <v>893</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="B117" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="D117" t="s">
-        <v>887</v>
+        <v>905</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>927</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1023</v>
+        <v>893</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B118" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>906</v>
@@ -7643,18 +7532,18 @@
         <v>929</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B119" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>908</v>
@@ -7666,18 +7555,18 @@
         <v>931</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B120" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>910</v>
@@ -7689,18 +7578,18 @@
         <v>933</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B121" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>912</v>
@@ -7709,21 +7598,21 @@
         <v>913</v>
       </c>
       <c r="F121" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B122" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>914</v>
@@ -7732,21 +7621,21 @@
         <v>915</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B123" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>916</v>
@@ -7755,21 +7644,21 @@
         <v>917</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B124" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>918</v>
@@ -7778,121 +7667,29 @@
         <v>919</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>901</v>
+        <v>984</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>953</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="B125" s="2">
-        <v>8</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="D125" t="s">
-        <v>921</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="B126" s="2">
-        <v>9</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D126" t="s">
-        <v>923</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="B127" s="2">
-        <v>10</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="D127" t="s">
-        <v>925</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="B128" s="2">
-        <v>11</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="D128" t="s">
-        <v>927</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A129" s="3"/>
-      <c r="D129"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A125" s="3"/>
+      <c r="D125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J128" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:J117">
-    <sortCondition ref="E90:E117"/>
+  <autoFilter ref="A1:J124" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A90:J113">
+    <sortCondition ref="E90:E113"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEA3D14-DD62-4135-9FD0-E402C8D9B899}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD486FBF-065D-473C-A96D-32ED46361A84}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1000">
   <si>
     <t>id</t>
   </si>
@@ -2834,9 +2834,6 @@
     <t>Milyen betűt találtál?</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>2025-Télapó</t>
   </si>
   <si>
@@ -3005,27 +3002,6 @@
     <t>thumbnails\telapo.png</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Á</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>🎄✨ Kertvárosi Adventi Ablakok – 2025 ✨🎄
 Idén is elindul a Kertvárosi Adventi Ablakvadászat!
 Minden nap keresd meg a számozott adventi ablakokat, és jegyezd fel az adott napon megjelenő betűt. Ahogy közeledik a karácsony, egyre több betű gyűlik össze – karácsony estére pedig összeáll a teljes kertvárosi üzenet. 💫</t>
@@ -3113,12 +3089,6 @@
   </si>
   <si>
     <t>Áldott, szeretettel teli adventi készülődést kívánunk!</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>SZ</t>
   </si>
   <si>
     <t>47.42854896985231</t>
@@ -3274,7 +3244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3298,8 +3268,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3582,13 +3550,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3598,17 +3566,17 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="H2" t="s">
         <v>896</v>
-      </c>
-      <c r="H2" t="s">
-        <v>897</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -3628,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>847</v>
@@ -3638,7 +3606,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>849</v>
@@ -4130,11 +4098,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6538,7 +6506,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>770</v>
       </c>
@@ -6567,7 +6535,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>811</v>
       </c>
@@ -6596,7 +6564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>811</v>
       </c>
@@ -6625,7 +6593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>811</v>
       </c>
@@ -6654,7 +6622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
@@ -6683,7 +6651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>816</v>
       </c>
@@ -6712,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>816</v>
       </c>
@@ -6741,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>816</v>
       </c>
@@ -6770,7 +6738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>816</v>
       </c>
@@ -6799,7 +6767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>846</v>
       </c>
@@ -6813,19 +6781,16 @@
         <v>865</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>846</v>
       </c>
@@ -6839,19 +6804,16 @@
         <v>889</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>846</v>
       </c>
@@ -6865,19 +6827,16 @@
         <v>873</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>846</v>
       </c>
@@ -6891,19 +6850,16 @@
         <v>863</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>846</v>
       </c>
@@ -6917,23 +6873,20 @@
         <v>881</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -6943,19 +6896,16 @@
         <v>851</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>846</v>
       </c>
@@ -6969,19 +6919,16 @@
         <v>883</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>846</v>
       </c>
@@ -6995,19 +6942,16 @@
         <v>887</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>846</v>
       </c>
@@ -7021,19 +6965,16 @@
         <v>871</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>846</v>
       </c>
@@ -7047,45 +6988,39 @@
         <v>853</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="D100" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>846</v>
       </c>
@@ -7099,19 +7034,16 @@
         <v>877</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>846</v>
       </c>
@@ -7125,19 +7057,16 @@
         <v>885</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>846</v>
       </c>
@@ -7151,19 +7080,16 @@
         <v>879</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>846</v>
       </c>
@@ -7177,19 +7103,16 @@
         <v>875</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>846</v>
       </c>
@@ -7203,19 +7126,16 @@
         <v>867</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>846</v>
       </c>
@@ -7229,19 +7149,16 @@
         <v>861</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>846</v>
       </c>
@@ -7255,19 +7172,16 @@
         <v>855</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>846</v>
       </c>
@@ -7281,19 +7195,16 @@
         <v>848</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>846</v>
       </c>
@@ -7307,19 +7218,16 @@
         <v>859</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>846</v>
       </c>
@@ -7327,25 +7235,22 @@
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D110" t="s">
-        <v>981</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>977</v>
+        <v>971</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>969</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>846</v>
       </c>
@@ -7359,19 +7264,16 @@
         <v>857</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>846</v>
       </c>
@@ -7384,20 +7286,17 @@
       <c r="D112" t="s">
         <v>891</v>
       </c>
-      <c r="F112" s="12" t="s">
-        <v>964</v>
+      <c r="F112" s="10" t="s">
+        <v>956</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>846</v>
       </c>
@@ -7411,171 +7310,168 @@
         <v>869</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D114" t="s">
         <v>898</v>
       </c>
-      <c r="D114" t="s">
-        <v>899</v>
-      </c>
       <c r="F114" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D115" t="s">
         <v>900</v>
       </c>
-      <c r="D115" t="s">
-        <v>901</v>
-      </c>
       <c r="F115" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D116" t="s">
         <v>902</v>
       </c>
-      <c r="D116" t="s">
-        <v>903</v>
-      </c>
       <c r="F116" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D117" t="s">
         <v>904</v>
       </c>
-      <c r="D117" t="s">
-        <v>905</v>
-      </c>
       <c r="F117" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D118" t="s">
         <v>906</v>
       </c>
-      <c r="D118" t="s">
-        <v>907</v>
-      </c>
       <c r="F118" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D119" t="s">
         <v>908</v>
       </c>
-      <c r="D119" t="s">
-        <v>909</v>
-      </c>
       <c r="F119" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D120" t="s">
         <v>910</v>
       </c>
-      <c r="D120" t="s">
-        <v>911</v>
-      </c>
       <c r="F120" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>893</v>
@@ -7584,105 +7480,105 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D121" t="s">
         <v>912</v>
       </c>
-      <c r="D121" t="s">
-        <v>913</v>
-      </c>
       <c r="F121" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D122" t="s">
         <v>914</v>
       </c>
-      <c r="D122" t="s">
-        <v>915</v>
-      </c>
       <c r="F122" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D123" t="s">
         <v>916</v>
       </c>
-      <c r="D123" t="s">
-        <v>917</v>
-      </c>
       <c r="F123" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D124" t="s">
         <v>918</v>
       </c>
-      <c r="D124" t="s">
-        <v>919</v>
-      </c>
       <c r="F124" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="D125"/>
     </row>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="14_{D26A04CD-8A2E-4698-B066-3B6C3F0CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD486FBF-065D-473C-A96D-32ED46361A84}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E67AF4-61A3-4DBD-8B2F-3355B20FC9CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1011">
   <si>
     <t>id</t>
   </si>
@@ -3179,6 +3179,39 @@
   </si>
   <si>
     <t>Egy betű</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3564,7 +3597,9 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>1000</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>895</v>
       </c>
@@ -4098,11 +4133,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90:K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4112,7 +4147,7 @@
     <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2"/>
     <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="2" customWidth="1"/>
@@ -6506,7 +6541,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>770</v>
       </c>
@@ -6535,7 +6570,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>811</v>
       </c>
@@ -6564,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>811</v>
       </c>
@@ -6593,7 +6628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>811</v>
       </c>
@@ -6622,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
@@ -6651,7 +6686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>816</v>
       </c>
@@ -6680,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>816</v>
       </c>
@@ -6709,7 +6744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>816</v>
       </c>
@@ -6738,7 +6773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>816</v>
       </c>
@@ -6767,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>846</v>
       </c>
@@ -6789,8 +6824,11 @@
       <c r="J90" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K90" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>846</v>
       </c>
@@ -6812,8 +6850,11 @@
       <c r="J91" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K91" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>846</v>
       </c>
@@ -6835,8 +6876,11 @@
       <c r="J92" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K92" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>846</v>
       </c>
@@ -6858,8 +6902,11 @@
       <c r="J93" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K93" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>846</v>
       </c>
@@ -6881,8 +6928,11 @@
       <c r="J94" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K94" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>846</v>
       </c>
@@ -6904,8 +6954,11 @@
       <c r="J95" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K95" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>846</v>
       </c>
@@ -6927,8 +6980,11 @@
       <c r="J96" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K96" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>846</v>
       </c>
@@ -6950,8 +7006,11 @@
       <c r="J97" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K97" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>846</v>
       </c>
@@ -6973,8 +7032,11 @@
       <c r="J98" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K98" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>846</v>
       </c>
@@ -6996,8 +7058,11 @@
       <c r="J99" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K99" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>846</v>
       </c>
@@ -7019,8 +7084,11 @@
       <c r="J100" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K100" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>846</v>
       </c>
@@ -7042,8 +7110,11 @@
       <c r="J101" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K101" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>846</v>
       </c>
@@ -7065,8 +7136,11 @@
       <c r="J102" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K102" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>846</v>
       </c>
@@ -7088,8 +7162,11 @@
       <c r="J103" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K103" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>846</v>
       </c>
@@ -7111,8 +7188,11 @@
       <c r="J104" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K104" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>846</v>
       </c>
@@ -7134,8 +7214,11 @@
       <c r="J105" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K105" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>846</v>
       </c>
@@ -7157,8 +7240,11 @@
       <c r="J106" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K106" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>846</v>
       </c>
@@ -7180,8 +7266,11 @@
       <c r="J107" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K107" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>846</v>
       </c>
@@ -7203,8 +7292,11 @@
       <c r="J108" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K108" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>846</v>
       </c>
@@ -7226,8 +7318,11 @@
       <c r="J109" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K109" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>846</v>
       </c>
@@ -7249,8 +7344,11 @@
       <c r="J110" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K110" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>846</v>
       </c>
@@ -7272,8 +7370,11 @@
       <c r="J111" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K111" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>846</v>
       </c>
@@ -7295,8 +7396,11 @@
       <c r="J112" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K112" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>846</v>
       </c>
@@ -7318,8 +7422,11 @@
       <c r="J113" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K113" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>894</v>
       </c>
@@ -7342,7 +7449,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>894</v>
       </c>
@@ -7365,7 +7472,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>894</v>
       </c>
@@ -7388,7 +7495,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>894</v>
       </c>
@@ -7411,7 +7518,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>894</v>
       </c>
@@ -7434,7 +7541,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>894</v>
       </c>
@@ -7457,7 +7564,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>894</v>
       </c>
@@ -7480,7 +7587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>894</v>
       </c>
@@ -7503,7 +7610,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>894</v>
       </c>
@@ -7526,7 +7633,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>894</v>
       </c>
@@ -7549,7 +7656,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>894</v>
       </c>
@@ -7578,7 +7685,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="D125"/>
     </row>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E67AF4-61A3-4DBD-8B2F-3355B20FC9CA}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D275D-A3BB-4BDC-ACA3-FEB22A1E7E47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1010">
   <si>
     <t>id</t>
   </si>
@@ -3176,9 +3176,6 @@
   </si>
   <si>
     <t>Hamu u. 47/2. Milyen betűt találtál?</t>
-  </si>
-  <si>
-    <t>Egy betű</t>
   </si>
   <si>
     <t>.</t>
@@ -3598,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>895</v>
@@ -4133,11 +4130,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90:K113"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90:J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6541,7 +6538,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>770</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>811</v>
       </c>
@@ -6599,7 +6596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>811</v>
       </c>
@@ -6628,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>811</v>
       </c>
@@ -6657,7 +6654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>816</v>
       </c>
@@ -6715,7 +6712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>816</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>816</v>
       </c>
@@ -6773,7 +6770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>816</v>
       </c>
@@ -6802,7 +6799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>846</v>
       </c>
@@ -6822,13 +6819,10 @@
         <v>975</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>846</v>
       </c>
@@ -6848,13 +6842,10 @@
         <v>976</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K91" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>846</v>
       </c>
@@ -6874,13 +6865,10 @@
         <v>977</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>846</v>
       </c>
@@ -6900,13 +6888,10 @@
         <v>978</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>846</v>
       </c>
@@ -6926,13 +6911,10 @@
         <v>979</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K94" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>846</v>
       </c>
@@ -6952,13 +6934,10 @@
         <v>980</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K95" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>846</v>
       </c>
@@ -6978,13 +6957,10 @@
         <v>981</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K96" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>846</v>
       </c>
@@ -7004,13 +6980,10 @@
         <v>982</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>846</v>
       </c>
@@ -7030,13 +7003,10 @@
         <v>983</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K98" s="2" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>846</v>
       </c>
@@ -7056,13 +7026,10 @@
         <v>998</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>846</v>
       </c>
@@ -7082,13 +7049,10 @@
         <v>984</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>846</v>
       </c>
@@ -7108,13 +7072,10 @@
         <v>985</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>846</v>
       </c>
@@ -7134,13 +7095,10 @@
         <v>986</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K102" s="2" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>846</v>
       </c>
@@ -7160,13 +7118,10 @@
         <v>987</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K103" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>846</v>
       </c>
@@ -7186,13 +7141,10 @@
         <v>988</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>846</v>
       </c>
@@ -7212,13 +7164,10 @@
         <v>989</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>846</v>
       </c>
@@ -7238,13 +7187,10 @@
         <v>990</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>846</v>
       </c>
@@ -7264,13 +7210,10 @@
         <v>991</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>846</v>
       </c>
@@ -7290,13 +7233,10 @@
         <v>992</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>846</v>
       </c>
@@ -7316,13 +7256,10 @@
         <v>993</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>846</v>
       </c>
@@ -7342,13 +7279,10 @@
         <v>994</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K110" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>846</v>
       </c>
@@ -7368,13 +7302,10 @@
         <v>995</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>846</v>
       </c>
@@ -7394,13 +7325,10 @@
         <v>996</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>846</v>
       </c>
@@ -7420,13 +7348,10 @@
         <v>997</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="K113" s="2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>894</v>
       </c>
@@ -7449,7 +7374,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>894</v>
       </c>
@@ -7472,7 +7397,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>894</v>
       </c>
@@ -7495,7 +7420,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>894</v>
       </c>
@@ -7518,7 +7443,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>894</v>
       </c>
@@ -7541,7 +7466,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>894</v>
       </c>
@@ -7564,7 +7489,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>894</v>
       </c>
@@ -7587,7 +7512,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>894</v>
       </c>
@@ -7610,7 +7535,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>894</v>
       </c>
@@ -7633,7 +7558,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>894</v>
       </c>
@@ -7656,7 +7581,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>894</v>
       </c>
@@ -7685,7 +7610,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="D125"/>
     </row>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D275D-A3BB-4BDC-ACA3-FEB22A1E7E47}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{168232DD-2E22-49D6-813D-75AA15178917}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1020">
   <si>
     <t>id</t>
   </si>
@@ -2618,36 +2618,6 @@
     <t>kevesebb mint 5</t>
   </si>
   <si>
-    <t>47.43507289464755</t>
-  </si>
-  <si>
-    <t>19.164080330470053</t>
-  </si>
-  <si>
-    <t>47.434806047933854</t>
-  </si>
-  <si>
-    <t>19.163818598566962</t>
-  </si>
-  <si>
-    <t>47.43447248763882</t>
-  </si>
-  <si>
-    <t>19.16349996842407</t>
-  </si>
-  <si>
-    <t>47.43417228156073</t>
-  </si>
-  <si>
-    <t>19.163188924683958</t>
-  </si>
-  <si>
-    <t>47.433746345218</t>
-  </si>
-  <si>
-    <t>19.16281339630088</t>
-  </si>
-  <si>
     <t>A ködös utca: Egy hűvös, ködös estén indult haza a kihalt utcán. A lámpák fénye sárgásan vibrált, mintha a levegő is lélegezne. A távolban egy csendes, alig hallható dorombolás hangja szűrődött át a ködből.</t>
   </si>
   <si>
@@ -3209,6 +3179,66 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>47.43481395135905</t>
+  </si>
+  <si>
+    <t>19.163386390796358</t>
+  </si>
+  <si>
+    <t>47.434781519104284</t>
+  </si>
+  <si>
+    <t>19.163451014066364</t>
+  </si>
+  <si>
+    <t>47.434720179785195</t>
+  </si>
+  <si>
+    <t>19.16359589526848</t>
+  </si>
+  <si>
+    <t>47.43464121411968</t>
+  </si>
+  <si>
+    <t>19.163526060444436</t>
+  </si>
+  <si>
+    <t>47.43479068474351</t>
+  </si>
+  <si>
+    <t>19.16344580251233</t>
+  </si>
+  <si>
+    <t>47.43469973332958</t>
+  </si>
+  <si>
+    <t>19.163636545389934</t>
+  </si>
+  <si>
+    <t>47.43475895752397</t>
+  </si>
+  <si>
+    <t>19.163771003483983</t>
+  </si>
+  <si>
+    <t>47.4346320484544</t>
+  </si>
+  <si>
+    <t>19.16365426467365</t>
+  </si>
+  <si>
+    <t>47.43454885234272</t>
+  </si>
+  <si>
+    <t>19.163576091363154</t>
+  </si>
+  <si>
+    <t>47.43468281211896</t>
+  </si>
+  <si>
+    <t>19.163698041727525</t>
   </si>
 </sst>
 </file>
@@ -3521,7 +3551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3580,13 +3610,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3595,31 +3625,31 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>818</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3628,20 +3658,20 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3792,10 +3822,13 @@
         <v>812</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>822</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>823</v>
+        <v>1001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>813</v>
@@ -3824,10 +3857,13 @@
         <v>819</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>822</v>
+        <v>1010</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>823</v>
+        <v>1011</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>813</v>
@@ -4132,9 +4168,9 @@
   </sheetPr>
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J90" sqref="J90:J113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6575,16 +6611,19 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>824</v>
+        <v>1002</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>825</v>
+        <v>1003</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>820</v>
@@ -6604,22 +6643,25 @@
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="I83" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>837</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
@@ -6633,22 +6675,25 @@
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="I84" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="J84" s="2">
         <v>6</v>
@@ -6662,22 +6707,25 @@
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="I85" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="J85" s="2">
         <v>9</v>
@@ -6691,16 +6739,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>824</v>
+        <v>1012</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>825</v>
+        <v>1013</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>842</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>820</v>
@@ -6720,22 +6771,25 @@
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="I87" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>837</v>
       </c>
       <c r="J87" s="2">
         <v>3</v>
@@ -6749,22 +6803,25 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="I88" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
@@ -6778,22 +6835,25 @@
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="I89" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="J89" s="2">
         <v>9</v>
@@ -6801,45 +6861,45 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D90" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="D91" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6847,666 +6907,666 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D92" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D93" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D94" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D95" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="D96" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="D97" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D98" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B99" s="2">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D99" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="D100" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D101" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D102" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B103" s="2">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D103" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B104" s="2">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D104" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B105" s="2">
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D105" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B106" s="2">
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D106" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B107" s="2">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D107" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B108" s="2">
         <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B109" s="2">
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D109" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B110" s="2">
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D110" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B111" s="2">
         <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D111" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B112" s="2">
         <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D112" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B113" s="2">
         <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D113" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D114" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D115" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="D116" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="D117" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D118" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D119" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D120" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>248</v>
@@ -7514,100 +7574,100 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="D121" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="D122" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D123" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D124" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{168232DD-2E22-49D6-813D-75AA15178917}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7A4227-DD2F-427B-B9F9-2CF941E25200}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1021">
   <si>
     <t>id</t>
   </si>
@@ -3239,6 +3239,9 @@
   </si>
   <si>
     <t>19.163698041727525</t>
+  </si>
+  <si>
+    <t>disableSolution</t>
   </si>
 </sst>
 </file>
@@ -4166,11 +4169,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90:K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4187,7 +4190,7 @@
     <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8">
+    <row r="1" spans="1:11" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4218,8 +4221,11 @@
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K1" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>770</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>811</v>
       </c>
@@ -6634,8 +6640,11 @@
       <c r="J82" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>811</v>
       </c>
@@ -6666,8 +6675,11 @@
       <c r="J83" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>811</v>
       </c>
@@ -6698,8 +6710,11 @@
       <c r="J84" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>811</v>
       </c>
@@ -6730,8 +6745,11 @@
       <c r="J85" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>816</v>
       </c>
@@ -6763,7 +6781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>816</v>
       </c>
@@ -6795,7 +6813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>816</v>
       </c>
@@ -6827,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>816</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>836</v>
       </c>
@@ -6881,8 +6899,11 @@
       <c r="J90" s="2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>836</v>
       </c>
@@ -6904,8 +6925,11 @@
       <c r="J91" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>836</v>
       </c>
@@ -6927,8 +6951,11 @@
       <c r="J92" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>836</v>
       </c>
@@ -6950,8 +6977,11 @@
       <c r="J93" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>836</v>
       </c>
@@ -6973,8 +7003,11 @@
       <c r="J94" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>836</v>
       </c>
@@ -6996,8 +7029,11 @@
       <c r="J95" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>836</v>
       </c>
@@ -7019,8 +7055,11 @@
       <c r="J96" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>836</v>
       </c>
@@ -7042,8 +7081,11 @@
       <c r="J97" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>836</v>
       </c>
@@ -7065,8 +7107,11 @@
       <c r="J98" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>836</v>
       </c>
@@ -7088,8 +7133,11 @@
       <c r="J99" s="2" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>836</v>
       </c>
@@ -7111,8 +7159,11 @@
       <c r="J100" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>836</v>
       </c>
@@ -7134,8 +7185,11 @@
       <c r="J101" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>836</v>
       </c>
@@ -7157,8 +7211,11 @@
       <c r="J102" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>836</v>
       </c>
@@ -7180,8 +7237,11 @@
       <c r="J103" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>836</v>
       </c>
@@ -7203,8 +7263,11 @@
       <c r="J104" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>836</v>
       </c>
@@ -7226,8 +7289,11 @@
       <c r="J105" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>836</v>
       </c>
@@ -7249,8 +7315,11 @@
       <c r="J106" s="2" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>836</v>
       </c>
@@ -7272,8 +7341,11 @@
       <c r="J107" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>836</v>
       </c>
@@ -7295,8 +7367,11 @@
       <c r="J108" s="2" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>836</v>
       </c>
@@ -7318,8 +7393,11 @@
       <c r="J109" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>836</v>
       </c>
@@ -7341,8 +7419,11 @@
       <c r="J110" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>836</v>
       </c>
@@ -7364,8 +7445,11 @@
       <c r="J111" s="2" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>836</v>
       </c>
@@ -7387,8 +7471,11 @@
       <c r="J112" s="2" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>836</v>
       </c>
@@ -7410,8 +7497,11 @@
       <c r="J113" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>884</v>
       </c>
@@ -7434,7 +7524,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>884</v>
       </c>
@@ -7457,7 +7547,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>884</v>
       </c>
@@ -7480,7 +7570,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>884</v>
       </c>
@@ -7503,7 +7593,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>884</v>
       </c>
@@ -7526,7 +7616,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>884</v>
       </c>
@@ -7549,7 +7639,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>884</v>
       </c>
@@ -7572,7 +7662,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>884</v>
       </c>
@@ -7595,7 +7685,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>884</v>
       </c>
@@ -7618,7 +7708,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>884</v>
       </c>
@@ -7641,7 +7731,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>884</v>
       </c>
@@ -7670,7 +7760,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="D125"/>
     </row>

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7A4227-DD2F-427B-B9F9-2CF941E25200}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32764D4D-D03F-464C-9AD5-928223E3E568}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="kids feladatok" sheetId="3" r:id="rId3"/>
-    <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$124</definedName>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="798">
   <si>
     <t>id</t>
   </si>
@@ -1119,9 +1117,6 @@
     <t>Malac;Disznó;sertés</t>
   </si>
   <si>
-    <t>Peppa</t>
-  </si>
-  <si>
     <t>zalaegerszeg-teszt</t>
   </si>
   <si>
@@ -1259,18 +1254,6 @@
     <t>gloriett-erdo2</t>
   </si>
   <si>
-    <t>Kérdés</t>
-  </si>
-  <si>
-    <t>Segítség 1</t>
-  </si>
-  <si>
-    <t>Segítség 2</t>
-  </si>
-  <si>
-    <t>Megoldás</t>
-  </si>
-  <si>
     <t>Hogy hívják a Mancs őrjárat rendőr kutyáját?</t>
   </si>
   <si>
@@ -1289,9 +1272,6 @@
     <t>Piros sisakot visel.</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>Hogy hívják a kis hableányt a Disney mesében?</t>
   </si>
   <si>
@@ -1319,9 +1299,6 @@
     <t>Tud havat és jeget létrehozni.</t>
   </si>
   <si>
-    <t>Jégvarázslat / fagyasztás</t>
-  </si>
-  <si>
     <t>Hogy hívják a hóembert a Jégvarázsban?</t>
   </si>
   <si>
@@ -1346,237 +1323,9 @@
     <t>Bohóchal</t>
   </si>
   <si>
-    <t>Hogy hívják a fekete sárkányt az „Így neveld a sárkányodat” filmben?</t>
-  </si>
-  <si>
-    <t>Éjfekete és tud repülni.</t>
-  </si>
-  <si>
-    <t>Nevét a fogairól kapta.</t>
-  </si>
-  <si>
-    <t>Fogatlan</t>
-  </si>
-  <si>
-    <t>Milyen színű Villám McQueen a Verdák című filmben?</t>
-  </si>
-  <si>
-    <t>A színe a sebességet jelképezi.</t>
-  </si>
-  <si>
-    <t>Milyen játék Woody a Toy Story-ban?</t>
-  </si>
-  <si>
-    <t>Kalapot visel és csillag van a mellén.</t>
-  </si>
-  <si>
-    <t>Ő egy vadnyugati hős.</t>
-  </si>
-  <si>
-    <t>Cowboy</t>
-  </si>
-  <si>
-    <t>Mi a szuperereje Mr. Irdatlannak?</t>
-  </si>
-  <si>
-    <t>Nagyon erős.</t>
-  </si>
-  <si>
-    <t>Mindenkinél nagyobb súlyt képes felemelni.</t>
-  </si>
-  <si>
-    <t>Szupererő</t>
-  </si>
-  <si>
-    <t>Mi Dumbo különleges képessége?</t>
-  </si>
-  <si>
-    <t>Nem ember, de mégis repül.</t>
-  </si>
-  <si>
-    <t>A füleit használja hozzá.</t>
-  </si>
-  <si>
-    <t>A füleivel repül</t>
-  </si>
-  <si>
-    <t>Ki Aladdin gonosz varázsló ellenfele?</t>
-  </si>
-  <si>
-    <t>Nagy fekete kígyóvá is átváltozik.</t>
-  </si>
-  <si>
-    <t>A neve „J”-vel kezdődik.</t>
-  </si>
-  <si>
-    <t>Jafar</t>
-  </si>
-  <si>
-    <t>Milyen állat Micimackó?</t>
-  </si>
-  <si>
-    <t>Mézet szeret enni.</t>
-  </si>
-  <si>
-    <t>A barátai Malacka és Füles.</t>
-  </si>
-  <si>
-    <t>Mackó</t>
-  </si>
-  <si>
-    <t>Ki Pán Péter kis tündér barátja?</t>
-  </si>
-  <si>
-    <t>Zöld ruhát visel, és tud repülni.</t>
-  </si>
-  <si>
-    <t>A neve T-vel kezdődik, és aprócska.</t>
-  </si>
-  <si>
-    <t>Csingiling</t>
-  </si>
-  <si>
-    <t>Mi a neve a lány szuperhősnek a „Hihetetlen család”-ban?</t>
-  </si>
-  <si>
-    <t>Képes láthatatlanná válni.</t>
-  </si>
-  <si>
-    <t>Ő Mr. Irdatlan lánya.</t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>Ki a Bosszúállók zöld színű, hatalmas tagja?</t>
-  </si>
-  <si>
-    <t>Nagyon dühös, ha feldühítik.</t>
-  </si>
-  <si>
-    <t>A ruhája elszakad, mikor átváltozik.</t>
-  </si>
-  <si>
-    <t>Hulk</t>
-  </si>
-  <si>
-    <t>Ki Remy a „L’ecsó” című filmben?</t>
-  </si>
-  <si>
-    <t>Nem ember, de nagyon szeret főzni.</t>
-  </si>
-  <si>
-    <t>Egy patkány, aki szakács akar lenni.</t>
-  </si>
-  <si>
-    <t>Patkány</t>
-  </si>
-  <si>
-    <t>Milyen állat a Madagaszkár filmben Skipper, Kowalski, Rico és Katica?</t>
-  </si>
-  <si>
-    <t>Mind feketefehér és egyenruhásnak tűnik.</t>
-  </si>
-  <si>
-    <t>Jégből jöttek, és katonásan mozognak.</t>
-  </si>
-  <si>
-    <t>Pingvinek</t>
-  </si>
-  <si>
-    <t>Mi Harry Potter varázslóiskolájának neve?</t>
-  </si>
-  <si>
-    <t>Itt tanul varázslatot és seprűn repül.</t>
-  </si>
-  <si>
-    <t>A neve R betűre végződik.</t>
-  </si>
-  <si>
     <t>Roxfort</t>
   </si>
   <si>
-    <t>Hogy hívják Shrek barátját, a beszédes állatot?</t>
-  </si>
-  <si>
-    <t>Mindig viccelődik és nem ember.</t>
-  </si>
-  <si>
-    <t>Egy szürke, beszélő állat.</t>
-  </si>
-  <si>
-    <t>Szamár</t>
-  </si>
-  <si>
-    <t>Milyen színű Shrek?</t>
-  </si>
-  <si>
-    <t>Nem emberi bőrű, hanem mesés színű.</t>
-  </si>
-  <si>
-    <t>Ugyanolyan színű, mint a fű.</t>
-  </si>
-  <si>
-    <t>Zöld</t>
-  </si>
-  <si>
-    <t>Milyen állat Balu A dzsungel könyvében?</t>
-  </si>
-  <si>
-    <t>Szereti a „dzsungel törvényét”.</t>
-  </si>
-  <si>
-    <t>Mézet és banánt eszik.</t>
-  </si>
-  <si>
-    <t>Medve</t>
-  </si>
-  <si>
-    <t>Hogy hívják Aladdin repülő barátját, a majmot?</t>
-  </si>
-  <si>
-    <t>Kicsi és barna.</t>
-  </si>
-  <si>
-    <t>Abu</t>
-  </si>
-  <si>
-    <t>Milyen állat Timon az Oroszlánkirályban?</t>
-  </si>
-  <si>
-    <t>Mindig Pumbával van együtt.</t>
-  </si>
-  <si>
-    <t>Kicsi, gyors és a föld alá is bújik.</t>
-  </si>
-  <si>
-    <t>Szurikáta</t>
-  </si>
-  <si>
-    <t>Milyen állat Pumba az Oroszlánkirályban?</t>
-  </si>
-  <si>
-    <t>Timon barátja.</t>
-  </si>
-  <si>
-    <t>Nagy, szarvval rendelkező vadmalac.</t>
-  </si>
-  <si>
-    <t>Varacskosdisznó</t>
-  </si>
-  <si>
-    <t>Hogy hívják a hercegnőt, akinek egy varangyos béka adja vissza a boldogságát?</t>
-  </si>
-  <si>
-    <t>A történet New Orleansban játszódik.</t>
-  </si>
-  <si>
-    <t>Ő a „béka hercegnő”.</t>
-  </si>
-  <si>
-    <t>Tiana</t>
-  </si>
-  <si>
     <t>Melyik mese hőse beszélget a tükörrel?</t>
   </si>
   <si>
@@ -1613,247 +1362,7 @@
     <t>Őz</t>
   </si>
   <si>
-    <t>Milyen állat Tré a Verdákban?</t>
-  </si>
-  <si>
-    <t>Rozsdás és vicces.</t>
-  </si>
-  <si>
-    <t>Nem versenyautó, hanem vontató.</t>
-  </si>
-  <si>
-    <t>Vontatóautó</t>
-  </si>
-  <si>
-    <t>Milyen állat Judy Hopps a Zootropolisban?</t>
-  </si>
-  <si>
-    <t>Rendőrként dolgozik.</t>
-  </si>
-  <si>
-    <t>Kicsi, szürke, hosszú füle van.</t>
-  </si>
-  <si>
-    <t>Nyúl</t>
-  </si>
-  <si>
-    <t>Ki SpongeBob legjobb barátja?</t>
-  </si>
-  <si>
-    <t>Rózsaszín és butácska, de aranyos.</t>
-  </si>
-  <si>
-    <t>Csillag alakú tengeri élőlény.</t>
-  </si>
-  <si>
-    <t>Patrik</t>
-  </si>
-  <si>
-    <t>Milyen háziállat Garfield?</t>
-  </si>
-  <si>
-    <t>Imádja a lasagnét.</t>
-  </si>
-  <si>
-    <t>Narancssárga és lusta.</t>
-  </si>
-  <si>
-    <t>Macska</t>
-  </si>
-  <si>
-    <t>Hogy hívják Mickey egér barátnőjét?</t>
-  </si>
-  <si>
-    <t>Masnit visel a fején.</t>
-  </si>
-  <si>
-    <t>Ugyanolyan név, csak nőiesebb.</t>
-  </si>
-  <si>
-    <t>Minnie egér</t>
-  </si>
-  <si>
-    <t>Milyen állat Goofy?</t>
-  </si>
-  <si>
-    <t>Nagy fülű, vicces, két lábon járó karakter.</t>
-  </si>
-  <si>
-    <t>Gyakran csinál butaságokat.</t>
-  </si>
-  <si>
-    <t>Kutya</t>
-  </si>
-  <si>
-    <t>Ki a herceg Elza húga a Jégvarázsban?</t>
-  </si>
-  <si>
-    <t>Ő nem tud varázsolni.</t>
-  </si>
-  <si>
-    <t>A szőke herceg helyett Kristoffot választja.</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Milyen állat Scooby-Doo?</t>
-  </si>
-  <si>
-    <t>Félénk, de imádja a jutalomfalatot.</t>
-  </si>
-  <si>
-    <t>Egy hatalmas barna kutya.</t>
-  </si>
-  <si>
-    <t>Dán dog</t>
-  </si>
-  <si>
-    <t>Hogy hívják a rózsaszín disznót a Peppa Pig mesében?</t>
-  </si>
-  <si>
-    <t>Kislány, szereti a sarat.</t>
-  </si>
-  <si>
-    <t>A neve benne van a címben is.</t>
-  </si>
-  <si>
-    <t>Ki Tapsi Hapsi?</t>
-  </si>
-  <si>
-    <t>Szereti a répát.</t>
-  </si>
-  <si>
-    <t>Gyakran mondja: „Mi a helyzet, doki?”</t>
-  </si>
-  <si>
-    <t>Ki a Kung Fu Panda főhőse?</t>
-  </si>
-  <si>
-    <t>Nagy, fekete-fehér állat, aki harcos lesz.</t>
-  </si>
-  <si>
-    <t>A neve rövid, két betűs.</t>
-  </si>
-  <si>
-    <t>Po</t>
-  </si>
-  <si>
-    <t>Milyen állat Alex a Madagaszkárban?</t>
-  </si>
-  <si>
-    <t>A fő attrakció az állatkertben.</t>
-  </si>
-  <si>
-    <t>A „dzsungel királya”.</t>
-  </si>
-  <si>
-    <t>Oroszlán</t>
-  </si>
-  <si>
-    <t>Ki vezeti az autókat a „Verdák” világában?</t>
-  </si>
-  <si>
-    <t>Senki, mert az autók maguktól mozognak.</t>
-  </si>
-  <si>
-    <t>Minden autó „élő”.</t>
-  </si>
-  <si>
-    <t>Az autók maguk</t>
-  </si>
-  <si>
-    <t>Melyik mesében szerepel Elsa és Anna?</t>
-  </si>
-  <si>
-    <t>Egy jeges világban élnek.</t>
-  </si>
-  <si>
-    <t>Az egyik legnépszerűbb Disney-film.</t>
-  </si>
-  <si>
-    <t>Jégvarázs</t>
-  </si>
-  <si>
-    <t>Hogy hívják a kis, sárga figurákat a Gru filmekben?</t>
-  </si>
-  <si>
-    <t>Egyformák, vicces hangjuk van.</t>
-  </si>
-  <si>
-    <t>Bananát kiáltanak.</t>
-  </si>
-  <si>
-    <t>Minyonok</t>
-  </si>
-  <si>
-    <t>Ki a Gru film gonosz hőse, aki végül jó lesz?</t>
-  </si>
-  <si>
-    <t>Három kislányt fogad örökbe.</t>
-  </si>
-  <si>
-    <t>Kopasz, orrban nagy, sárga lényekkel dolgozik.</t>
-  </si>
-  <si>
-    <t>Gru</t>
-  </si>
-  <si>
-    <t>Ki a Moana című film főszereplője?</t>
-  </si>
-  <si>
-    <t>Egy bátor polinéz lány.</t>
-  </si>
-  <si>
-    <t>A tenger hívja őt kalandra.</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Milyen állat Sid a Jégkorszakban?</t>
-  </si>
-  <si>
-    <t>Lusta, de vicces.</t>
-  </si>
-  <si>
-    <t>Hosszú karjai vannak, és sokat beszél.</t>
-  </si>
-  <si>
-    <t>Milyen állat Diego a Jégkorszakban?</t>
-  </si>
-  <si>
-    <t>Erős, nagy fogai vannak.</t>
-  </si>
-  <si>
-    <t>Kardfogú ragadozó.</t>
-  </si>
-  <si>
-    <t>Kardfogú tigris</t>
-  </si>
-  <si>
-    <t>Ki a Jégkorszak mamutja?</t>
-  </si>
-  <si>
-    <t>Nagy, szőrös, ormányos állat.</t>
-  </si>
-  <si>
     <t>A neve „M”-mel kezdődik.</t>
-  </si>
-  <si>
-    <t>Manny</t>
-  </si>
-  <si>
-    <t>Ki az, aki varázsszőnyegen repül?</t>
-  </si>
-  <si>
-    <t>Talál egy lámpát, amiből dzsinn jön elő.</t>
-  </si>
-  <si>
-    <t>Egy hercegnő szerelme.</t>
-  </si>
-  <si>
-    <t>Aladdin</t>
   </si>
   <si>
     <t>Marshall;Marsal;Marshal</t>
@@ -1968,228 +1477,6 @@
   </si>
   <si>
     <t>Mysti és az Erdő Mesés Kérdései - Halmi Erdő</t>
-  </si>
-  <si>
-    <t>„Én vagyok az apád” – Melyik filmben hangzik el ez a híres mondat?</t>
-  </si>
-  <si>
-    <t>A leghíresebb űreposzok egyike.</t>
-  </si>
-  <si>
-    <t>A gonosz apa neve Darth Vader.</t>
-  </si>
-  <si>
-    <t>Star Wars – A Birodalom visszavág</t>
-  </si>
-  <si>
-    <t>„Hakuna Matata” – melyik mese üzenete ez?</t>
-  </si>
-  <si>
-    <t>Afrikai szavannán játszódik.</t>
-  </si>
-  <si>
-    <t>Timon és Pumba is ezt mondják.</t>
-  </si>
-  <si>
-    <t>Oroszlánkirály</t>
-  </si>
-  <si>
-    <t>„Senki sem tökéletes” – mivel zárul ez a vígjáték?</t>
-  </si>
-  <si>
-    <t>Két férfi nőnek öltözik.</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe is szerepel.</t>
-  </si>
-  <si>
-    <t>Van, aki forrón szereti</t>
-  </si>
-  <si>
-    <t>Melyik filmben hangzik el: „Az élet olyan, mint egy doboz bonbon”?</t>
-  </si>
-  <si>
-    <t>Egy futó férfi mondja ezt.</t>
-  </si>
-  <si>
-    <t>Tom Hanks játssza.</t>
-  </si>
-  <si>
-    <t>Forrest Gump</t>
-  </si>
-  <si>
-    <t>„Csak ússz tovább!” – melyik animációs film szlogenje?</t>
-  </si>
-  <si>
-    <t>Egy bohóchal szerepel benne.</t>
-  </si>
-  <si>
-    <t>Szenilla is benne van.</t>
-  </si>
-  <si>
-    <t>Némó nyomában</t>
-  </si>
-  <si>
-    <t>Melyik filmben szerepel egy mágikus gyűrű, ami láthatatlanná tesz?</t>
-  </si>
-  <si>
-    <t>Tolkien írása alapján készült.</t>
-  </si>
-  <si>
-    <t>Főhőse egy hobbit.</t>
-  </si>
-  <si>
-    <t>A Gyűrűk Ura</t>
-  </si>
-  <si>
-    <t>Ki mondja: „Varázslatos napot, Potter”?</t>
-  </si>
-  <si>
-    <t>Ő a varázslóiskola igazgatója.</t>
-  </si>
-  <si>
-    <t>Hosszú, fehér szakálla van.</t>
-  </si>
-  <si>
-    <t>Dumbledore</t>
-  </si>
-  <si>
-    <t>„Télapó is van a városban” – melyik film főhőse karácsonykor találja meg önmagát?</t>
-  </si>
-  <si>
-    <t>Egy zöld lény utálja az ünnepeket.</t>
-  </si>
-  <si>
-    <t>A film címe egy szó: Grincs.</t>
-  </si>
-  <si>
-    <t>A Grincs</t>
-  </si>
-  <si>
-    <t>Melyik filmben szól a dal: „Let It Go”?</t>
-  </si>
-  <si>
-    <t>Egy jeges királyságban játszódik.</t>
-  </si>
-  <si>
-    <t>Elza énekli.</t>
-  </si>
-  <si>
-    <t>Mi volt a neve az autós időgépnek a „Vissza a jövőbe” filmben?</t>
-  </si>
-  <si>
-    <t>Ezüst színű sportautó.</t>
-  </si>
-  <si>
-    <t>88 mérföld/óránál működik.</t>
-  </si>
-  <si>
-    <t>DeLorean</t>
-  </si>
-  <si>
-    <t>Melyik filmben található R2-D2 és C-3PO?</t>
-  </si>
-  <si>
-    <t>Robotok, akik mindig együtt járnak.</t>
-  </si>
-  <si>
-    <t>Űreposz a Jedikről.</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Milyen állat Shrek legjobb barátja?</t>
-  </si>
-  <si>
-    <t>Beszél, vicces és makacs.</t>
-  </si>
-  <si>
-    <t>Egy szamár.</t>
-  </si>
-  <si>
-    <t>Melyik filmben hangzik el: „You shall not pass!”?</t>
-  </si>
-  <si>
-    <t>Egy öreg varázsló mondja egy hídon.</t>
-  </si>
-  <si>
-    <t>Gandalf neve ismerős lehet.</t>
-  </si>
-  <si>
-    <t>A Gyűrűk Ura: A Gyűrű Szövetsége</t>
-  </si>
-  <si>
-    <t>Mi volt Jack utolsó szava Rose-hoz a Titanicban?</t>
-  </si>
-  <si>
-    <t>Egyetlen szó volt.</t>
-  </si>
-  <si>
-    <t>A lány neve.</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Melyik filmben találkozhatunk Buzz Lightyear és Woody karakterével?</t>
-  </si>
-  <si>
-    <t>Játékok életre kelnek.</t>
-  </si>
-  <si>
-    <t>Pixar-klasszikus.</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Melyik filmben van egy kék, gyors mozgású sündisznó?</t>
-  </si>
-  <si>
-    <t>Videójátékból készült film.</t>
-  </si>
-  <si>
-    <t>Sonic, a sündisznó</t>
-  </si>
-  <si>
-    <t>Milyen állat Po a „Kung Fu Panda” című filmben?</t>
-  </si>
-  <si>
-    <t>Fekete-fehér, nagy és ügyetlen.</t>
-  </si>
-  <si>
-    <t>Később harcmester lesz.</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Melyik filmben szerepel Elsa húga, Anna?</t>
-  </si>
-  <si>
-    <t>Szintén egy fagyos világban játszódik.</t>
-  </si>
-  <si>
-    <t>Kettes számú rész is készült belőle.</t>
-  </si>
-  <si>
-    <t>Az erdőben él, agancsa lesz.</t>
-  </si>
-  <si>
-    <t>Anyukáját elveszti a film elején.</t>
-  </si>
-  <si>
-    <t>Melyik filmben hangzik el: „Bond. James Bond.”?</t>
-  </si>
-  <si>
-    <t>Titkosügynök film.</t>
-  </si>
-  <si>
-    <t>Első rész: Dr. No.</t>
-  </si>
-  <si>
-    <t>James Bond – Dr. No</t>
   </si>
   <si>
     <t>vajdahunyad-kids</t>
@@ -3243,12 +2530,54 @@
   <si>
     <t>disableSolution</t>
   </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Városliget</t>
+  </si>
+  <si>
+    <t>Tatabánya</t>
+  </si>
+  <si>
+    <t>Biatorbágy</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>19 ker, kke</t>
+  </si>
+  <si>
+    <t>18 ker, Halmi erdő</t>
+  </si>
+  <si>
+    <t>18 ker</t>
+  </si>
+  <si>
+    <t>18 ker, Gloriett</t>
+  </si>
+  <si>
+    <t>18 ker, Bokay kert</t>
+  </si>
+  <si>
+    <t>19 ker, Hamu u.</t>
+  </si>
+  <si>
+    <t>11 ker</t>
+  </si>
+  <si>
+    <t>Ráckeve</t>
+  </si>
+  <si>
+    <t>19 ker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3278,13 +2607,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3307,7 +2629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3320,9 +2642,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3552,9 +2871,12 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3608,18 +2930,20 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>909</v>
+        <v>672</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -3628,31 +2952,34 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>989</v>
+        <v>752</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>885</v>
+        <v>648</v>
       </c>
       <c r="H2" t="s">
-        <v>886</v>
+        <v>649</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>930</v>
+        <v>693</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>931</v>
+        <v>694</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>818</v>
+        <v>581</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>882</v>
+        <v>645</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -3661,20 +2988,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>932</v>
+        <v>695</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>837</v>
+        <v>600</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>838</v>
+        <v>601</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>933</v>
+        <v>696</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>839</v>
+        <v>602</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3685,10 +3015,10 @@
         <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>765</v>
+        <v>528</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3708,16 +3038,19 @@
       <c r="K4" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>609</v>
+        <v>446</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3726,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>596</v>
+        <v>433</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -3735,10 +3068,13 @@
         <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>607</v>
+        <v>444</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>608</v>
+        <v>445</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -3772,16 +3108,19 @@
       <c r="K6" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>771</v>
+        <v>534</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -3790,30 +3129,33 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>810</v>
+        <v>573</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>772</v>
+        <v>535</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>774</v>
+        <v>536</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>775</v>
+        <v>538</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>811</v>
+        <v>574</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>815</v>
+        <v>578</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3822,33 +3164,36 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>812</v>
+        <v>575</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1000</v>
+        <v>763</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1001</v>
+        <v>764</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>813</v>
+        <v>576</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>814</v>
+        <v>577</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>816</v>
+        <v>579</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>818</v>
+        <v>581</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>817</v>
+        <v>580</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3857,33 +3202,36 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>819</v>
+        <v>582</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1010</v>
+        <v>773</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1011</v>
+        <v>774</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>813</v>
+        <v>576</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>814</v>
+        <v>577</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>685</v>
+        <v>448</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3892,22 +3240,25 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>686</v>
+        <v>449</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>689</v>
+        <v>452</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>690</v>
+        <v>453</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>687</v>
+        <v>450</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>688</v>
+        <v>451</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
@@ -3944,6 +3295,9 @@
       <c r="K11" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -3976,6 +3330,9 @@
       <c r="K12" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="L12" s="2" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -4008,6 +3365,9 @@
       <c r="K13" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="L13" s="2" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -4040,6 +3400,9 @@
       <c r="K14" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -4072,6 +3435,9 @@
       <c r="K15" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="L15" s="2" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -4107,16 +3473,19 @@
       <c r="K16" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L16" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -4125,22 +3494,25 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L17" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="F20" s="5"/>
@@ -4148,7 +3520,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="F21" s="5"/>
@@ -4171,9 +3543,9 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90:K113"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4222,7 +3594,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1020</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -4239,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>743</v>
+        <v>506</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>52</v>
@@ -4269,19 +3641,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>744</v>
+        <v>507</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>753</v>
+        <v>516</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>754</v>
+        <v>517</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>755</v>
+        <v>518</v>
       </c>
       <c r="J3" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -4298,19 +3670,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>745</v>
+        <v>508</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>756</v>
+        <v>519</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>757</v>
+        <v>520</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>758</v>
+        <v>521</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>759</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -4327,7 +3699,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>746</v>
+        <v>509</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>38</v>
@@ -4356,10 +3728,10 @@
         <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>747</v>
+        <v>510</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>760</v>
+        <v>523</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>43</v>
@@ -4385,7 +3757,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>748</v>
+        <v>511</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>44</v>
@@ -4414,19 +3786,19 @@
         <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>749</v>
+        <v>512</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>761</v>
+        <v>524</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>762</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>763</v>
+        <v>526</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>764</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -4443,7 +3815,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>750</v>
+        <v>513</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>75</v>
@@ -4472,7 +3844,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>751</v>
+        <v>514</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
@@ -4501,7 +3873,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>752</v>
+        <v>515</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>74</v>
@@ -5728,481 +5100,481 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" t="s">
         <v>353</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" t="s">
         <v>366</v>
-      </c>
-      <c r="J56" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
+        <v>414</v>
       </c>
       <c r="F58" t="s">
-        <v>597</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>574</v>
+        <v>434</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>578</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
-        <v>579</v>
+        <v>416</v>
       </c>
       <c r="F59" t="s">
-        <v>598</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>573</v>
+        <v>435</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="D60" t="s">
-        <v>581</v>
+        <v>418</v>
       </c>
       <c r="F60" t="s">
-        <v>599</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J60" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>582</v>
+        <v>419</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>420</v>
       </c>
       <c r="F61" t="s">
-        <v>600</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="J61" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>584</v>
+        <v>421</v>
       </c>
       <c r="D62" t="s">
-        <v>585</v>
+        <v>422</v>
       </c>
       <c r="F62" t="s">
-        <v>601</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>575</v>
+        <v>438</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>586</v>
+        <v>423</v>
       </c>
       <c r="D63" t="s">
-        <v>587</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>602</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>398</v>
+        <v>439</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>588</v>
+        <v>425</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>603</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>402</v>
+        <v>440</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>590</v>
+        <v>427</v>
       </c>
       <c r="D65" t="s">
-        <v>591</v>
+        <v>428</v>
       </c>
       <c r="F65" t="s">
-        <v>604</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>483</v>
+        <v>441</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" s="2">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>592</v>
+        <v>429</v>
       </c>
       <c r="D66" t="s">
-        <v>593</v>
+        <v>430</v>
       </c>
       <c r="F66" t="s">
-        <v>605</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>487</v>
+        <v>442</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>594</v>
+        <v>431</v>
       </c>
       <c r="D67" t="s">
-        <v>595</v>
+        <v>432</v>
       </c>
       <c r="F67" t="s">
-        <v>606</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>491</v>
+        <v>443</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>692</v>
+        <v>455</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>693</v>
+        <v>456</v>
       </c>
       <c r="E68" s="2">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>691</v>
+        <v>454</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>694</v>
+        <v>457</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>741</v>
+        <v>504</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>742</v>
+        <v>505</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
@@ -6210,63 +5582,63 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>695</v>
+        <v>458</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>696</v>
+        <v>459</v>
       </c>
       <c r="E69" s="2">
         <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>735</v>
+        <v>498</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>697</v>
+        <v>460</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>699</v>
+        <v>462</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>700</v>
+        <v>463</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>698</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>708</v>
+        <v>471</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>707</v>
+        <v>470</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>737</v>
+        <v>500</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>766</v>
+        <v>529</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>706</v>
+        <v>469</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>705</v>
+        <v>468</v>
       </c>
       <c r="J70" s="2">
         <v>11</v>
@@ -6274,22 +5646,22 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>701</v>
+        <v>464</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>702</v>
+        <v>465</v>
       </c>
       <c r="E71" s="2">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>736</v>
+        <v>499</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -6298,39 +5670,39 @@
         <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>704</v>
+        <v>467</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>703</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>710</v>
+        <v>473</v>
       </c>
       <c r="D72" t="s">
-        <v>711</v>
+        <v>474</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>738</v>
+        <v>501</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>709</v>
+        <v>472</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>712</v>
+        <v>475</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>740</v>
+        <v>503</v>
       </c>
       <c r="J72" s="2">
         <v>1763</v>
@@ -6338,31 +5710,31 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B73" s="2">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>715</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
-        <v>716</v>
+        <v>479</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>768</v>
+        <v>531</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>767</v>
+        <v>530</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>713</v>
+        <v>476</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>714</v>
+        <v>477</v>
       </c>
       <c r="J73" s="2">
         <v>1814</v>
@@ -6370,63 +5742,63 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>717</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
-        <v>718</v>
+        <v>481</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>769</v>
+        <v>532</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>720</v>
+        <v>483</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>721</v>
+        <v>484</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>722</v>
+        <v>485</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>719</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>723</v>
+        <v>486</v>
       </c>
       <c r="D75" t="s">
-        <v>724</v>
+        <v>487</v>
       </c>
       <c r="E75" s="2">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>739</v>
+        <v>502</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>725</v>
+        <v>488</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>726</v>
+        <v>489</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>727</v>
+        <v>490</v>
       </c>
       <c r="J75" s="2">
         <v>63</v>
@@ -6434,208 +5806,208 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>684</v>
+        <v>447</v>
       </c>
       <c r="B76" s="2">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>728</v>
+        <v>491</v>
       </c>
       <c r="D76" t="s">
-        <v>729</v>
+        <v>492</v>
       </c>
       <c r="E76" s="2">
         <v>20</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>730</v>
+        <v>493</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>731</v>
+        <v>494</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>733</v>
+        <v>496</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>734</v>
+        <v>497</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>732</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>776</v>
+        <v>539</v>
       </c>
       <c r="D77" t="s">
-        <v>777</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>778</v>
+        <v>540</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="G77" t="s">
-        <v>779</v>
+        <v>542</v>
       </c>
       <c r="H77" t="s">
-        <v>780</v>
+        <v>543</v>
       </c>
       <c r="I77" t="s">
-        <v>781</v>
+        <v>544</v>
       </c>
       <c r="J77" t="s">
-        <v>782</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>783</v>
+        <v>546</v>
       </c>
       <c r="D78" t="s">
-        <v>784</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>785</v>
+        <v>547</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>548</v>
       </c>
       <c r="G78" t="s">
-        <v>786</v>
+        <v>549</v>
       </c>
       <c r="H78" t="s">
-        <v>787</v>
+        <v>550</v>
       </c>
       <c r="I78" t="s">
-        <v>788</v>
+        <v>551</v>
       </c>
       <c r="J78" t="s">
-        <v>789</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>790</v>
+        <v>553</v>
       </c>
       <c r="D79" t="s">
-        <v>791</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>795</v>
+        <v>554</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>796</v>
+        <v>559</v>
       </c>
       <c r="D80" t="s">
-        <v>797</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>798</v>
+        <v>560</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>561</v>
       </c>
       <c r="G80" t="s">
-        <v>799</v>
+        <v>562</v>
       </c>
       <c r="H80" t="s">
-        <v>800</v>
+        <v>563</v>
       </c>
       <c r="I80" t="s">
-        <v>801</v>
+        <v>564</v>
       </c>
       <c r="J80" t="s">
-        <v>802</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>803</v>
+        <v>566</v>
       </c>
       <c r="D81" t="s">
-        <v>804</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>809</v>
+        <v>567</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>572</v>
       </c>
       <c r="G81" t="s">
-        <v>805</v>
+        <v>568</v>
       </c>
       <c r="H81" t="s">
-        <v>806</v>
+        <v>569</v>
       </c>
       <c r="I81" t="s">
-        <v>807</v>
+        <v>570</v>
       </c>
       <c r="J81" t="s">
-        <v>808</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>811</v>
+        <v>574</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1002</v>
+        <v>765</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1003</v>
+        <v>766</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>822</v>
+        <v>585</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>832</v>
+        <v>595</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>820</v>
+        <v>583</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>821</v>
+        <v>584</v>
       </c>
       <c r="J82" s="2">
         <v>4</v>
@@ -6646,31 +6018,31 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>811</v>
+        <v>574</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1004</v>
+        <v>767</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1005</v>
+        <v>768</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>823</v>
+        <v>586</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>833</v>
+        <v>596</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>826</v>
+        <v>589</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>827</v>
+        <v>590</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
@@ -6681,31 +6053,31 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>811</v>
+        <v>574</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1006</v>
+        <v>769</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1007</v>
+        <v>770</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>824</v>
+        <v>587</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>834</v>
+        <v>597</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>828</v>
+        <v>591</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>829</v>
+        <v>592</v>
       </c>
       <c r="J84" s="2">
         <v>6</v>
@@ -6716,31 +6088,31 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>811</v>
+        <v>574</v>
       </c>
       <c r="B85" s="4">
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1008</v>
+        <v>771</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1009</v>
+        <v>772</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>825</v>
+        <v>588</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>835</v>
+        <v>598</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>830</v>
+        <v>593</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>831</v>
+        <v>594</v>
       </c>
       <c r="J85" s="2">
         <v>9</v>
@@ -6751,31 +6123,31 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>816</v>
+        <v>579</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1012</v>
+        <v>775</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1013</v>
+        <v>776</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>822</v>
+        <v>585</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>832</v>
+        <v>595</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>820</v>
+        <v>583</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>821</v>
+        <v>584</v>
       </c>
       <c r="J86" s="2">
         <v>4</v>
@@ -6783,31 +6155,31 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>816</v>
+        <v>579</v>
       </c>
       <c r="B87" s="4">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1014</v>
+        <v>777</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1015</v>
+        <v>778</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>823</v>
+        <v>586</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>833</v>
+        <v>596</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>826</v>
+        <v>589</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>827</v>
+        <v>590</v>
       </c>
       <c r="J87" s="2">
         <v>3</v>
@@ -6815,31 +6187,31 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>816</v>
+        <v>579</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1016</v>
+        <v>779</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1017</v>
+        <v>780</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>824</v>
+        <v>587</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>834</v>
+        <v>597</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>828</v>
+        <v>591</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>829</v>
+        <v>592</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
@@ -6847,31 +6219,31 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>816</v>
+        <v>579</v>
       </c>
       <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1018</v>
+        <v>781</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1019</v>
+        <v>782</v>
       </c>
       <c r="E89" s="2">
         <v>3</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>825</v>
+        <v>588</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>835</v>
+        <v>598</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>830</v>
+        <v>593</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>831</v>
+        <v>594</v>
       </c>
       <c r="J89" s="2">
         <v>9</v>
@@ -6879,25 +6251,25 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>854</v>
+        <v>617</v>
       </c>
       <c r="D90" t="s">
-        <v>855</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>945</v>
+        <v>618</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>708</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>965</v>
+        <v>728</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>990</v>
+        <v>753</v>
       </c>
       <c r="K90" s="2">
         <v>1</v>
@@ -6905,22 +6277,22 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>878</v>
+        <v>641</v>
       </c>
       <c r="D91" t="s">
-        <v>879</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>955</v>
+        <v>642</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>718</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>966</v>
+        <v>729</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6931,25 +6303,25 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>862</v>
+        <v>625</v>
       </c>
       <c r="D92" t="s">
-        <v>863</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>950</v>
+        <v>626</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>713</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>967</v>
+        <v>730</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>991</v>
+        <v>754</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
@@ -6957,25 +6329,25 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>852</v>
+        <v>615</v>
       </c>
       <c r="D93" t="s">
-        <v>853</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>944</v>
+        <v>616</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>707</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>968</v>
+        <v>731</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>992</v>
+        <v>755</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
@@ -6983,25 +6355,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>870</v>
+        <v>633</v>
       </c>
       <c r="D94" t="s">
-        <v>871</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>954</v>
+        <v>634</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>717</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>969</v>
+        <v>732</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>924</v>
+        <v>687</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
@@ -7009,25 +6381,25 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>840</v>
+        <v>603</v>
       </c>
       <c r="D95" t="s">
-        <v>841</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>938</v>
+        <v>604</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>701</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>970</v>
+        <v>733</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>913</v>
+        <v>676</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
@@ -7035,25 +6407,25 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>872</v>
+        <v>635</v>
       </c>
       <c r="D96" t="s">
-        <v>873</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>956</v>
+        <v>636</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>719</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>971</v>
+        <v>734</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>924</v>
+        <v>687</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
@@ -7061,25 +6433,25 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>876</v>
+        <v>639</v>
       </c>
       <c r="D97" t="s">
-        <v>877</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>958</v>
+        <v>640</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>721</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>972</v>
+        <v>735</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>992</v>
+        <v>755</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
@@ -7087,25 +6459,25 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>860</v>
+        <v>623</v>
       </c>
       <c r="D98" t="s">
-        <v>861</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>949</v>
+        <v>624</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>712</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>973</v>
+        <v>736</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>927</v>
+        <v>690</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
@@ -7113,25 +6485,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B99" s="2">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>842</v>
+        <v>605</v>
       </c>
       <c r="D99" t="s">
-        <v>843</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>939</v>
+        <v>606</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>702</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>988</v>
+        <v>751</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>993</v>
+        <v>756</v>
       </c>
       <c r="K99" s="2">
         <v>1</v>
@@ -7139,25 +6511,25 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>962</v>
+        <v>725</v>
       </c>
       <c r="D100" t="s">
-        <v>963</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>937</v>
+        <v>726</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>700</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>974</v>
+        <v>737</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>994</v>
+        <v>757</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
@@ -7165,25 +6537,25 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>866</v>
+        <v>629</v>
       </c>
       <c r="D101" t="s">
-        <v>867</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>952</v>
+        <v>630</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>715</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>975</v>
+        <v>738</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>995</v>
+        <v>758</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
@@ -7191,25 +6563,25 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>874</v>
+        <v>637</v>
       </c>
       <c r="D102" t="s">
-        <v>875</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>957</v>
+        <v>638</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>976</v>
+        <v>739</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>927</v>
+        <v>690</v>
       </c>
       <c r="K102" s="2">
         <v>1</v>
@@ -7217,25 +6589,25 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B103" s="2">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>868</v>
+        <v>631</v>
       </c>
       <c r="D103" t="s">
-        <v>869</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>953</v>
+        <v>632</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>716</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>977</v>
+        <v>740</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>917</v>
+        <v>680</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
@@ -7243,25 +6615,25 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B104" s="2">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>864</v>
+        <v>627</v>
       </c>
       <c r="D104" t="s">
-        <v>865</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>951</v>
+        <v>628</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>714</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>978</v>
+        <v>741</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>996</v>
+        <v>759</v>
       </c>
       <c r="K104" s="2">
         <v>1</v>
@@ -7269,25 +6641,25 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B105" s="2">
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>856</v>
+        <v>619</v>
       </c>
       <c r="D105" t="s">
-        <v>857</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>947</v>
+        <v>620</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>710</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>979</v>
+        <v>742</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>997</v>
+        <v>760</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
@@ -7295,25 +6667,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B106" s="2">
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>850</v>
+        <v>613</v>
       </c>
       <c r="D106" t="s">
-        <v>851</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>943</v>
+        <v>614</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>980</v>
+        <v>743</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>998</v>
+        <v>761</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
@@ -7321,25 +6693,25 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B107" s="2">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>844</v>
+        <v>607</v>
       </c>
       <c r="D107" t="s">
-        <v>845</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>940</v>
+        <v>608</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>703</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>981</v>
+        <v>744</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>997</v>
+        <v>760</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
@@ -7347,25 +6719,25 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B108" s="2">
         <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>837</v>
+        <v>600</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>936</v>
+        <v>601</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>699</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>982</v>
+        <v>745</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>994</v>
+        <v>757</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -7373,25 +6745,25 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B109" s="2">
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>848</v>
+        <v>611</v>
       </c>
       <c r="D109" t="s">
-        <v>849</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>942</v>
+        <v>612</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>705</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>983</v>
+        <v>746</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>992</v>
+        <v>755</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
@@ -7399,25 +6771,25 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B110" s="2">
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>960</v>
+        <v>723</v>
       </c>
       <c r="D110" t="s">
-        <v>961</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>959</v>
+        <v>724</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>722</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>984</v>
+        <v>747</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>924</v>
+        <v>687</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
@@ -7425,25 +6797,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B111" s="2">
         <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>846</v>
+        <v>609</v>
       </c>
       <c r="D111" t="s">
-        <v>847</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>941</v>
+        <v>610</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>704</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>985</v>
+        <v>748</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>999</v>
+        <v>762</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
@@ -7451,25 +6823,25 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B112" s="2">
         <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>880</v>
+        <v>643</v>
       </c>
       <c r="D112" t="s">
-        <v>881</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>946</v>
+        <v>644</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>709</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>986</v>
+        <v>749</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>992</v>
+        <v>755</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
@@ -7477,25 +6849,25 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>836</v>
+        <v>599</v>
       </c>
       <c r="B113" s="2">
         <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>858</v>
+        <v>621</v>
       </c>
       <c r="D113" t="s">
-        <v>859</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>948</v>
+        <v>622</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>711</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>987</v>
+        <v>750</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>919</v>
+        <v>682</v>
       </c>
       <c r="K113" s="2">
         <v>1</v>
@@ -7503,160 +6875,160 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>887</v>
+        <v>650</v>
       </c>
       <c r="D114" t="s">
-        <v>888</v>
+        <v>651</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>910</v>
+        <v>673</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>911</v>
+        <v>674</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>889</v>
+        <v>652</v>
       </c>
       <c r="D115" t="s">
-        <v>890</v>
+        <v>653</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>912</v>
+        <v>675</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>913</v>
+        <v>676</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>891</v>
+        <v>654</v>
       </c>
       <c r="D116" t="s">
-        <v>892</v>
+        <v>655</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>914</v>
+        <v>677</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>915</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>893</v>
+        <v>656</v>
       </c>
       <c r="D117" t="s">
-        <v>894</v>
+        <v>657</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>916</v>
+        <v>679</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>917</v>
+        <v>680</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>895</v>
+        <v>658</v>
       </c>
       <c r="D118" t="s">
-        <v>896</v>
+        <v>659</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>918</v>
+        <v>681</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>919</v>
+        <v>682</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>897</v>
+        <v>660</v>
       </c>
       <c r="D119" t="s">
-        <v>898</v>
+        <v>661</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>920</v>
+        <v>683</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>921</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>899</v>
+        <v>662</v>
       </c>
       <c r="D120" t="s">
-        <v>900</v>
+        <v>663</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>922</v>
+        <v>685</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>248</v>
@@ -7664,100 +7036,100 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>901</v>
+        <v>664</v>
       </c>
       <c r="D121" t="s">
-        <v>902</v>
+        <v>665</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>923</v>
+        <v>686</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>924</v>
+        <v>687</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>903</v>
+        <v>666</v>
       </c>
       <c r="D122" t="s">
-        <v>904</v>
+        <v>667</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>925</v>
+        <v>688</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>917</v>
+        <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>905</v>
+        <v>668</v>
       </c>
       <c r="D123" t="s">
-        <v>906</v>
+        <v>669</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>926</v>
+        <v>689</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>883</v>
+        <v>646</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>927</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>884</v>
+        <v>647</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>907</v>
+        <v>670</v>
       </c>
       <c r="D124" t="s">
-        <v>908</v>
+        <v>671</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>928</v>
+        <v>691</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>964</v>
+        <v>727</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>934</v>
+        <v>697</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>935</v>
+        <v>698</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>929</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1">
@@ -7774,1068 +7146,4 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9CE32-7434-4EBC-8E6B-DB471C0DA13A}">
-  <dimension ref="A1:D52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="49.6640625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4">
-      <c r="A9" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4">
-      <c r="A20" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.4">
-      <c r="A28" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEA013B-782E-477E-A33B-0D3B97A68F73}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.4">
-      <c r="A2" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.4">
-      <c r="A4" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.4">
-      <c r="A5" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4">
-      <c r="A6" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4">
-      <c r="A7" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4">
-      <c r="A9" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4">
-      <c r="A10" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4">
-      <c r="A11" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4">
-      <c r="A12" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4">
-      <c r="A14" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4">
-      <c r="A15" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4">
-      <c r="A16" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4">
-      <c r="A17" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4">
-      <c r="A18" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4">
-      <c r="A19" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4">
-      <c r="A21" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32764D4D-D03F-464C-9AD5-928223E3E568}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAAB7B9-1C09-4AFC-B398-A8134181CAB0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="799">
   <si>
     <t>id</t>
   </si>
@@ -2571,6 +2571,9 @@
   </si>
   <si>
     <t>19 ker</t>
+  </si>
+  <si>
+    <t>isHidden</t>
   </si>
 </sst>
 </file>
@@ -2872,11 +2875,11 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2933,7 +2936,9 @@
       <c r="L1" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2969,6 +2974,9 @@
       </c>
       <c r="L2" s="2" t="s">
         <v>789</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAAB7B9-1C09-4AFC-B398-A8134181CAB0}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EB05B3-0BA7-4535-9E95-C741F10C7226}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2874,11 +2874,10 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -3192,6 +3191,9 @@
       <c r="L8" s="2" t="s">
         <v>794</v>
       </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -3230,6 +3232,9 @@
       <c r="L9" s="2" t="s">
         <v>794</v>
       </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -3305,6 +3310,9 @@
       </c>
       <c r="L11" s="2" t="s">
         <v>795</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EB05B3-0BA7-4535-9E95-C741F10C7226}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EA9A5E-C62C-4572-8F98-F5AF51A925B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="791">
   <si>
     <t>id</t>
   </si>
@@ -933,27 +933,6 @@
     <t>thumbnails\tata.png</t>
   </si>
   <si>
-    <t>bp1-titka</t>
-  </si>
-  <si>
-    <t>Mysti és a BudapestOne Irodaház Rejtélye</t>
-  </si>
-  <si>
-    <t>47.46495523756118</t>
-  </si>
-  <si>
-    <t>19.01540374584782</t>
-  </si>
-  <si>
-    <t>Amikor Mysti megszámolta az utolsó lábat is, a medálja halványan felizzott. A Budapest ONE hatalmas üvegfalaiban hirtelen saját tükörképét látta – de mintha a háttérben ott suhant volna egy másik narancsszín árnyék is… Talán az egyik testvére? Mysti megállt, dorombolt egyet, és tudta: ez a városi kaland csak a kezdet volt.</t>
-  </si>
-  <si>
-    <t>thumbnails\bp1.png</t>
-  </si>
-  <si>
-    <t>Egy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
-  </si>
-  <si>
     <t>salata-teszt</t>
   </si>
   <si>
@@ -2546,27 +2525,9 @@
     <t>Tata</t>
   </si>
   <si>
-    <t>19 ker, kke</t>
-  </si>
-  <si>
-    <t>18 ker, Halmi erdő</t>
-  </si>
-  <si>
     <t>18 ker</t>
   </si>
   <si>
-    <t>18 ker, Gloriett</t>
-  </si>
-  <si>
-    <t>18 ker, Bokay kert</t>
-  </si>
-  <si>
-    <t>19 ker, Hamu u.</t>
-  </si>
-  <si>
-    <t>11 ker</t>
-  </si>
-  <si>
     <t>Ráckeve</t>
   </si>
   <si>
@@ -2574,6 +2535,21 @@
   </si>
   <si>
     <t>isHidden</t>
+  </si>
+  <si>
+    <t>19 kerület, kkke</t>
+  </si>
+  <si>
+    <t>18 kerület, Halmi erdő</t>
+  </si>
+  <si>
+    <t>18 kerület, Gloriett</t>
+  </si>
+  <si>
+    <t>18 kerület, Bokay kert</t>
+  </si>
+  <si>
+    <t>19 kerület, Hamu u.</t>
   </si>
 </sst>
 </file>
@@ -2872,13 +2848,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2933,21 +2909,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2956,23 +2932,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -2980,13 +2956,13 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -2995,23 +2971,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3022,10 +2998,10 @@
         <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3046,18 +3022,18 @@
         <v>264</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -3066,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -3075,13 +3051,13 @@
         <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -3116,18 +3092,18 @@
         <v>265</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -3136,33 +3112,33 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -3171,25 +3147,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -3197,13 +3173,13 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3212,25 +3188,25 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -3238,13 +3214,13 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -3253,36 +3229,36 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -3291,39 +3267,33 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
+      <c r="C12" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -3331,34 +3301,34 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>79</v>
+      <c r="F12" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3366,34 +3336,34 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>118</v>
+      <c r="F13" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+      <c r="C14" t="s">
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -3401,148 +3371,113 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>143</v>
+      <c r="F14" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>268</v>
+        <v>181</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>185</v>
+      <c r="A15" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
-        <v>182</v>
+      <c r="C15" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>181</v>
+        <v>275</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>277</v>
+      <c r="A16" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I16" s="2">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,8 +3494,8 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
@@ -3610,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -3627,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>52</v>
@@ -3657,19 +3592,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="J3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -3686,19 +3621,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -3715,7 +3650,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>38</v>
@@ -3744,10 +3679,10 @@
         <v>63</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>43</v>
@@ -3773,7 +3708,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>44</v>
@@ -3802,19 +3737,19 @@
         <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
@@ -3831,7 +3766,7 @@
         <v>69</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>75</v>
@@ -3860,7 +3795,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
@@ -3889,7 +3824,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>74</v>
@@ -4928,13 +4863,13 @@
         <v>241</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J46" s="2">
         <v>10</v>
@@ -4942,655 +4877,655 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I53" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J56" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D60" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F60" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D61" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F61" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D63" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B64" s="2">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D65" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B66" s="2">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F66" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E68" s="2">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J68" s="2">
         <v>4</v>
@@ -5598,63 +5533,63 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E69" s="2">
         <v>5</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J70" s="2">
         <v>11</v>
@@ -5662,22 +5597,22 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E71" s="2">
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -5686,39 +5621,39 @@
         <v>20</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D72" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J72" s="2">
         <v>1763</v>
@@ -5726,31 +5661,31 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B73" s="2">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D73" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J73" s="2">
         <v>1814</v>
@@ -5758,63 +5693,63 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D74" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D75" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E75" s="2">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J75" s="2">
         <v>63</v>
@@ -5822,208 +5757,208 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B76" s="2">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E76" s="2">
         <v>20</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G77" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H77" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I77" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J77" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D78" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H78" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I78" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="J78" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D79" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D80" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="G80" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H80" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I80" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J80" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:11" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D81" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G81" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I81" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="J81" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B82" s="4">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="J82" s="2">
         <v>4</v>
@@ -6034,31 +5969,31 @@
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E83" s="2">
         <v>3</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
@@ -6069,31 +6004,31 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E84" s="2">
         <v>3</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J84" s="2">
         <v>6</v>
@@ -6104,31 +6039,31 @@
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B85" s="4">
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="J85" s="2">
         <v>9</v>
@@ -6139,31 +6074,31 @@
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E86" s="2">
         <v>3</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="J86" s="2">
         <v>4</v>
@@ -6171,31 +6106,31 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B87" s="4">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="J87" s="2">
         <v>3</v>
@@ -6203,31 +6138,31 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E88" s="2">
         <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
@@ -6235,31 +6170,31 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B89" s="4">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E89" s="2">
         <v>3</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="J89" s="2">
         <v>9</v>
@@ -6267,25 +6202,25 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D90" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="K90" s="2">
         <v>1</v>
@@ -6293,22 +6228,22 @@
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D91" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>30</v>
@@ -6319,25 +6254,25 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D92" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
@@ -6345,25 +6280,25 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D93" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
@@ -6371,25 +6306,25 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D94" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
@@ -6397,25 +6332,25 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D95" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
@@ -6423,25 +6358,25 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D96" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
@@ -6449,25 +6384,25 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D97" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
@@ -6475,25 +6410,25 @@
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D98" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
@@ -6501,25 +6436,25 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B99" s="2">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D99" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="K99" s="2">
         <v>1</v>
@@ -6527,25 +6462,25 @@
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D100" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
@@ -6553,25 +6488,25 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B101" s="2">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D101" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
@@ -6579,25 +6514,25 @@
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D102" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="K102" s="2">
         <v>1</v>
@@ -6605,25 +6540,25 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B103" s="2">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D103" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
@@ -6631,25 +6566,25 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B104" s="2">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D104" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="K104" s="2">
         <v>1</v>
@@ -6657,25 +6592,25 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B105" s="2">
         <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D105" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
@@ -6683,25 +6618,25 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B106" s="2">
         <v>17</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D106" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
@@ -6709,25 +6644,25 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B107" s="2">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D107" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
@@ -6735,25 +6670,25 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B108" s="2">
         <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -6761,25 +6696,25 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B109" s="2">
         <v>20</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
@@ -6787,25 +6722,25 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B110" s="2">
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D110" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
@@ -6813,25 +6748,25 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B111" s="2">
         <v>22</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D111" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
@@ -6839,25 +6774,25 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B112" s="2">
         <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D112" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
@@ -6865,25 +6800,25 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B113" s="2">
         <v>24</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D113" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="K113" s="2">
         <v>1</v>
@@ -6891,160 +6826,160 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D114" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B115" s="2">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D115" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B116" s="2">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D116" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D117" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D118" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B119" s="2">
         <v>6</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D119" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B120" s="2">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D120" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>248</v>
@@ -7052,100 +6987,100 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D121" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B122" s="2">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D122" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B123" s="2">
         <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D123" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D124" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F124" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>698</v>
-      </c>
       <c r="J124" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1">

--- a/games/games_free_kids.xlsx
+++ b/games/games_free_kids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EA9A5E-C62C-4572-8F98-F5AF51A925B9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1860395E-304B-4CE6-B03F-CF28D349145D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2525,15 +2525,9 @@
     <t>Tata</t>
   </si>
   <si>
-    <t>18 ker</t>
-  </si>
-  <si>
     <t>Ráckeve</t>
   </si>
   <si>
-    <t>19 ker</t>
-  </si>
-  <si>
     <t>isHidden</t>
   </si>
   <si>
@@ -2550,6 +2544,12 @@
   </si>
   <si>
     <t>19 kerület, Hamu u.</t>
+  </si>
+  <si>
+    <t>18 kerület</t>
+  </si>
+  <si>
+    <t>19 kerület</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2854,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2912,7 +2912,7 @@
         <v>777</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
@@ -2948,7 +2948,7 @@
         <v>687</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -2987,7 +2987,7 @@
         <v>595</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3022,7 +3022,7 @@
         <v>264</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -3057,7 +3057,7 @@
         <v>438</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -3092,7 +3092,7 @@
         <v>265</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -3127,7 +3127,7 @@
         <v>531</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3165,7 +3165,7 @@
         <v>570</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         <v>570</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>266</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
@@ -3425,7 +3425,7 @@
         <v>291</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
@@ -3460,7 +3460,7 @@
         <v>325</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
